--- a/assets/data/archive/Items.xlsx
+++ b/assets/data/archive/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E6081-85F5-482B-B1C0-C429193BA245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C302512-D4D4-45EE-98D3-ABE0E88292E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="15" r:id="rId1"/>
@@ -3315,7 +3315,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3341,27 +3341,27 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF9900FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF9900"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3369,7 +3369,7 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FF0B5394"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3382,7 +3382,7 @@
     <font>
       <b/>
       <sz val="10.5"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3390,49 +3390,49 @@
       <b/>
       <sz val="10.5"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF33FF33"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFCC00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFDEAD"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF87CEEB"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFF33"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3440,42 +3440,42 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF11FF11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF999999"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF8B66FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF666666"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFB45F06"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3555,7 +3555,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3737,11 +3737,8 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4151,7 +4148,7 @@
       <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
@@ -4161,7 +4158,7 @@
     <col min="10" max="10" width="11.85546875" style="15" customWidth="1"/>
     <col min="11" max="19" width="7.7109375" style="15" customWidth="1"/>
     <col min="20" max="21" width="9.140625" style="15"/>
-    <col min="22" max="22" width="9.140625" style="91"/>
+    <col min="22" max="22" width="9.140625" style="14"/>
     <col min="23" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -4217,61 +4214,61 @@
       <c r="U1" s="63" t="s">
         <v>995</v>
       </c>
-      <c r="V1" s="92"/>
-    </row>
-    <row r="2" spans="1:22" s="63" customFormat="1" ht="13.5">
-      <c r="E2" s="90" t="s">
+      <c r="V1" s="35"/>
+    </row>
+    <row r="2" spans="1:22" s="63" customFormat="1">
+      <c r="E2" s="89" t="s">
         <v>1051</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="89" t="s">
         <v>1052</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="89" t="s">
         <v>1053</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="89" t="s">
         <v>1054</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>1055</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="89" t="s">
         <v>1056</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="89" t="s">
         <v>1057</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="89" t="s">
         <v>1058</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="89" t="s">
         <v>1059</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="89" t="s">
         <v>1060</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="89" t="s">
         <v>1061</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="89" t="s">
         <v>1062</v>
       </c>
-      <c r="Q2" s="90" t="s">
+      <c r="Q2" s="89" t="s">
         <v>1063</v>
       </c>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="89" t="s">
         <v>1064</v>
       </c>
-      <c r="S2" s="90" t="s">
+      <c r="S2" s="89" t="s">
         <v>1065</v>
       </c>
-      <c r="T2" s="90" t="s">
+      <c r="T2" s="89" t="s">
         <v>1066</v>
       </c>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="89" t="s">
         <v>1067</v>
       </c>
-      <c r="V2" s="92"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="14">
@@ -4428,7 +4425,7 @@
       <c r="I11" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="V11" s="93"/>
+      <c r="V11" s="48"/>
     </row>
     <row r="12" spans="1:22" s="65" customFormat="1">
       <c r="A12" s="14">
@@ -4449,7 +4446,7 @@
       <c r="J12" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="V12" s="93"/>
+      <c r="V12" s="48"/>
     </row>
     <row r="13" spans="1:22" s="65" customFormat="1">
       <c r="A13" s="14">
@@ -4470,7 +4467,7 @@
       <c r="J13" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="V13" s="93"/>
+      <c r="V13" s="48"/>
     </row>
     <row r="14" spans="1:22" s="65" customFormat="1">
       <c r="A14" s="14">
@@ -4491,7 +4488,7 @@
       <c r="I14" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="V14" s="93"/>
+      <c r="V14" s="48"/>
     </row>
     <row r="15" spans="1:22" s="65" customFormat="1">
       <c r="A15" s="14">
@@ -4512,7 +4509,7 @@
       <c r="N15" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="V15" s="93"/>
+      <c r="V15" s="48"/>
     </row>
     <row r="16" spans="1:22" s="65" customFormat="1">
       <c r="A16" s="14">
@@ -4533,7 +4530,7 @@
       <c r="O16" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="V16" s="93"/>
+      <c r="V16" s="48"/>
     </row>
     <row r="17" spans="1:22" s="65" customFormat="1">
       <c r="A17" s="14">
@@ -4554,7 +4551,7 @@
       <c r="R17" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="V17" s="93"/>
+      <c r="V17" s="48"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="14">
@@ -4970,3059 +4967,3059 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="E43" s="91" t="str" cm="1">
+      <c r="E43" s="14" t="str" cm="1">
         <f t="array" ref="E43">IF(E3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E3,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F43" s="91" t="str" cm="1">
+      <c r="F43" s="14" t="str" cm="1">
         <f t="array" ref="F43">IF(F3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F3,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G43" s="91" t="str" cm="1">
+      <c r="G43" s="14" t="str" cm="1">
         <f t="array" ref="G43">IF(G3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G3,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H43" s="91" t="str" cm="1">
+      <c r="H43" s="14" t="str" cm="1">
         <f t="array" ref="H43">IF(H3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H3,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I43" s="91" t="str" cm="1">
+      <c r="I43" s="14" t="str" cm="1">
         <f t="array" ref="I43">IF(I3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I3,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J43" s="91" t="str" cm="1">
+      <c r="J43" s="14" t="str" cm="1">
         <f t="array" ref="J43">IF(J3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J3,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_CRIT,lo:3,hi:7</v>
       </c>
-      <c r="K43" s="91" t="str" cm="1">
+      <c r="K43" s="14" t="str" cm="1">
         <f t="array" ref="K43">IF(K3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K3,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L43" s="91" t="str" cm="1">
+      <c r="L43" s="14" t="str" cm="1">
         <f t="array" ref="L43">IF(L3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L3,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M43" s="91" t="str" cm="1">
+      <c r="M43" s="14" t="str" cm="1">
         <f t="array" ref="M43">IF(M3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M3,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N43" s="91" t="str" cm="1">
+      <c r="N43" s="14" t="str" cm="1">
         <f t="array" ref="N43">IF(N3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N3,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O43" s="91" t="str" cm="1">
+      <c r="O43" s="14" t="str" cm="1">
         <f t="array" ref="O43">IF(O3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O3,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P43" s="91" t="str" cm="1">
+      <c r="P43" s="14" t="str" cm="1">
         <f t="array" ref="P43">IF(P3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P3,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q43" s="91" t="str" cm="1">
+      <c r="Q43" s="14" t="str" cm="1">
         <f t="array" ref="Q43">IF(Q3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q3,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R43" s="91" t="str" cm="1">
+      <c r="R43" s="14" t="str" cm="1">
         <f t="array" ref="R43">IF(R3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R3,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S43" s="91" t="str" cm="1">
+      <c r="S43" s="14" t="str" cm="1">
         <f t="array" ref="S43">IF(S3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S3,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T43" s="91" t="str" cm="1">
+      <c r="T43" s="14" t="str" cm="1">
         <f t="array" ref="T43">IF(T3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T3,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U43" s="91" t="str" cm="1">
+      <c r="U43" s="14" t="str" cm="1">
         <f t="array" ref="U43">IF(U3&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U3,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V43" s="91" t="str">
+      <c r="V43" s="14" t="str">
         <f>_xlfn.TEXTJOIN(";",TRUE,E43:U43)</f>
         <v>id:IATTR_CRIT,lo:3,hi:7</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="E44" s="91" t="str" cm="1">
+      <c r="E44" s="14" t="str" cm="1">
         <f t="array" ref="E44">IF(E4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E4,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F44" s="91" t="str" cm="1">
+      <c r="F44" s="14" t="str" cm="1">
         <f t="array" ref="F44">IF(F4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F4,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G44" s="91" t="str" cm="1">
+      <c r="G44" s="14" t="str" cm="1">
         <f t="array" ref="G44">IF(G4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G4,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H44" s="91" t="str" cm="1">
+      <c r="H44" s="14" t="str" cm="1">
         <f t="array" ref="H44">IF(H4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H4,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I44" s="91" t="str" cm="1">
+      <c r="I44" s="14" t="str" cm="1">
         <f t="array" ref="I44">IF(I4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I4,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J44" s="91" t="str" cm="1">
+      <c r="J44" s="14" t="str" cm="1">
         <f t="array" ref="J44">IF(J4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J4,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K44" s="91" t="str" cm="1">
+      <c r="K44" s="14" t="str" cm="1">
         <f t="array" ref="K44">IF(K4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K4,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L44" s="91" t="str" cm="1">
+      <c r="L44" s="14" t="str" cm="1">
         <f t="array" ref="L44">IF(L4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L4,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M44" s="91" t="str" cm="1">
+      <c r="M44" s="14" t="str" cm="1">
         <f t="array" ref="M44">IF(M4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M4,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_SCRIT,lo:3,hi:7</v>
       </c>
-      <c r="N44" s="91" t="str" cm="1">
+      <c r="N44" s="14" t="str" cm="1">
         <f t="array" ref="N44">IF(N4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N4,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O44" s="91" t="str" cm="1">
+      <c r="O44" s="14" t="str" cm="1">
         <f t="array" ref="O44">IF(O4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O4,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P44" s="91" t="str" cm="1">
+      <c r="P44" s="14" t="str" cm="1">
         <f t="array" ref="P44">IF(P4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P4,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q44" s="91" t="str" cm="1">
+      <c r="Q44" s="14" t="str" cm="1">
         <f t="array" ref="Q44">IF(Q4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q4,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R44" s="91" t="str" cm="1">
+      <c r="R44" s="14" t="str" cm="1">
         <f t="array" ref="R44">IF(R4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R4,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S44" s="91" t="str" cm="1">
+      <c r="S44" s="14" t="str" cm="1">
         <f t="array" ref="S44">IF(S4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S4,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T44" s="91" t="str" cm="1">
+      <c r="T44" s="14" t="str" cm="1">
         <f t="array" ref="T44">IF(T4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T4,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U44" s="91" t="str" cm="1">
+      <c r="U44" s="14" t="str" cm="1">
         <f t="array" ref="U44">IF(U4&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U4,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V44" s="91" t="str">
+      <c r="V44" s="14" t="str">
         <f t="shared" ref="V44:V82" si="0">_xlfn.TEXTJOIN(";",TRUE,E44:U44)</f>
         <v>id:IATTR_SCRIT,lo:3,hi:7</v>
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="E45" s="91" t="str" cm="1">
+      <c r="E45" s="14" t="str" cm="1">
         <f t="array" ref="E45">IF(E5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E5,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F45" s="91" t="str" cm="1">
+      <c r="F45" s="14" t="str" cm="1">
         <f t="array" ref="F45">IF(F5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F5,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G45" s="91" t="str" cm="1">
+      <c r="G45" s="14" t="str" cm="1">
         <f t="array" ref="G45">IF(G5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G5,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H45" s="91" t="str" cm="1">
+      <c r="H45" s="14" t="str" cm="1">
         <f t="array" ref="H45">IF(H5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H5,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I45" s="91" t="str" cm="1">
+      <c r="I45" s="14" t="str" cm="1">
         <f t="array" ref="I45">IF(I5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I5,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J45" s="91" t="str" cm="1">
+      <c r="J45" s="14" t="str" cm="1">
         <f t="array" ref="J45">IF(J5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J5,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K45" s="91" t="str" cm="1">
+      <c r="K45" s="14" t="str" cm="1">
         <f t="array" ref="K45">IF(K5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K5,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_IAS,lo:3,hi:7</v>
       </c>
-      <c r="L45" s="91" t="str" cm="1">
+      <c r="L45" s="14" t="str" cm="1">
         <f t="array" ref="L45">IF(L5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L5,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M45" s="91" t="str" cm="1">
+      <c r="M45" s="14" t="str" cm="1">
         <f t="array" ref="M45">IF(M5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M5,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N45" s="91" t="str" cm="1">
+      <c r="N45" s="14" t="str" cm="1">
         <f t="array" ref="N45">IF(N5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N5,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O45" s="91" t="str" cm="1">
+      <c r="O45" s="14" t="str" cm="1">
         <f t="array" ref="O45">IF(O5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O5,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P45" s="91" t="str" cm="1">
+      <c r="P45" s="14" t="str" cm="1">
         <f t="array" ref="P45">IF(P5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P5,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q45" s="91" t="str" cm="1">
+      <c r="Q45" s="14" t="str" cm="1">
         <f t="array" ref="Q45">IF(Q5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q5,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R45" s="91" t="str" cm="1">
+      <c r="R45" s="14" t="str" cm="1">
         <f t="array" ref="R45">IF(R5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R5,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S45" s="91" t="str" cm="1">
+      <c r="S45" s="14" t="str" cm="1">
         <f t="array" ref="S45">IF(S5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S5,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T45" s="91" t="str" cm="1">
+      <c r="T45" s="14" t="str" cm="1">
         <f t="array" ref="T45">IF(T5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T5,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U45" s="91" t="str" cm="1">
+      <c r="U45" s="14" t="str" cm="1">
         <f t="array" ref="U45">IF(U5&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U5,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V45" s="91" t="str">
+      <c r="V45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_IAS,lo:3,hi:7</v>
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="E46" s="91" t="str" cm="1">
+      <c r="E46" s="14" t="str" cm="1">
         <f t="array" ref="E46">IF(E6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E6,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F46" s="91" t="str" cm="1">
+      <c r="F46" s="14" t="str" cm="1">
         <f t="array" ref="F46">IF(F6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F6,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G46" s="91" t="str" cm="1">
+      <c r="G46" s="14" t="str" cm="1">
         <f t="array" ref="G46">IF(G6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G6,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H46" s="91" t="str" cm="1">
+      <c r="H46" s="14" t="str" cm="1">
         <f t="array" ref="H46">IF(H6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H6,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I46" s="91" t="str" cm="1">
+      <c r="I46" s="14" t="str" cm="1">
         <f t="array" ref="I46">IF(I6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I6,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J46" s="91" t="str" cm="1">
+      <c r="J46" s="14" t="str" cm="1">
         <f t="array" ref="J46">IF(J6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J6,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K46" s="91" t="str" cm="1">
+      <c r="K46" s="14" t="str" cm="1">
         <f t="array" ref="K46">IF(K6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K6,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L46" s="91" t="str" cm="1">
+      <c r="L46" s="14" t="str" cm="1">
         <f t="array" ref="L46">IF(L6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L6,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M46" s="91" t="str" cm="1">
+      <c r="M46" s="14" t="str" cm="1">
         <f t="array" ref="M46">IF(M6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M6,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N46" s="91" t="str" cm="1">
+      <c r="N46" s="14" t="str" cm="1">
         <f t="array" ref="N46">IF(N6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N6,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_SHASTE,lo:3,hi:7</v>
       </c>
-      <c r="O46" s="91" t="str" cm="1">
+      <c r="O46" s="14" t="str" cm="1">
         <f t="array" ref="O46">IF(O6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O6,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P46" s="91" t="str" cm="1">
+      <c r="P46" s="14" t="str" cm="1">
         <f t="array" ref="P46">IF(P6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P6,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q46" s="91" t="str" cm="1">
+      <c r="Q46" s="14" t="str" cm="1">
         <f t="array" ref="Q46">IF(Q6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q6,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R46" s="91" t="str" cm="1">
+      <c r="R46" s="14" t="str" cm="1">
         <f t="array" ref="R46">IF(R6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R6,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S46" s="91" t="str" cm="1">
+      <c r="S46" s="14" t="str" cm="1">
         <f t="array" ref="S46">IF(S6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S6,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T46" s="91" t="str" cm="1">
+      <c r="T46" s="14" t="str" cm="1">
         <f t="array" ref="T46">IF(T6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T6,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U46" s="91" t="str" cm="1">
+      <c r="U46" s="14" t="str" cm="1">
         <f t="array" ref="U46">IF(U6&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U6,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V46" s="91" t="str">
+      <c r="V46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_SHASTE,lo:3,hi:7</v>
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="E47" s="91" t="str" cm="1">
+      <c r="E47" s="14" t="str" cm="1">
         <f t="array" ref="E47">IF(E7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E7,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_STR,lo:8,hi:15</v>
       </c>
-      <c r="F47" s="91" t="str" cm="1">
+      <c r="F47" s="14" t="str" cm="1">
         <f t="array" ref="F47">IF(F7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F7,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G47" s="91" t="str" cm="1">
+      <c r="G47" s="14" t="str" cm="1">
         <f t="array" ref="G47">IF(G7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G7,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H47" s="91" t="str" cm="1">
+      <c r="H47" s="14" t="str" cm="1">
         <f t="array" ref="H47">IF(H7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H7,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I47" s="91" t="str" cm="1">
+      <c r="I47" s="14" t="str" cm="1">
         <f t="array" ref="I47">IF(I7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I7,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J47" s="91" t="str" cm="1">
+      <c r="J47" s="14" t="str" cm="1">
         <f t="array" ref="J47">IF(J7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J7,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K47" s="91" t="str" cm="1">
+      <c r="K47" s="14" t="str" cm="1">
         <f t="array" ref="K47">IF(K7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K7,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L47" s="91" t="str" cm="1">
+      <c r="L47" s="14" t="str" cm="1">
         <f t="array" ref="L47">IF(L7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L7,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M47" s="91" t="str" cm="1">
+      <c r="M47" s="14" t="str" cm="1">
         <f t="array" ref="M47">IF(M7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M7,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N47" s="91" t="str" cm="1">
+      <c r="N47" s="14" t="str" cm="1">
         <f t="array" ref="N47">IF(N7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N7,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O47" s="91" t="str" cm="1">
+      <c r="O47" s="14" t="str" cm="1">
         <f t="array" ref="O47">IF(O7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O7,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P47" s="91" t="str" cm="1">
+      <c r="P47" s="14" t="str" cm="1">
         <f t="array" ref="P47">IF(P7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P7,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q47" s="91" t="str" cm="1">
+      <c r="Q47" s="14" t="str" cm="1">
         <f t="array" ref="Q47">IF(Q7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q7,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R47" s="91" t="str" cm="1">
+      <c r="R47" s="14" t="str" cm="1">
         <f t="array" ref="R47">IF(R7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R7,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S47" s="91" t="str" cm="1">
+      <c r="S47" s="14" t="str" cm="1">
         <f t="array" ref="S47">IF(S7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S7,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T47" s="91" t="str" cm="1">
+      <c r="T47" s="14" t="str" cm="1">
         <f t="array" ref="T47">IF(T7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T7,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U47" s="91" t="str" cm="1">
+      <c r="U47" s="14" t="str" cm="1">
         <f t="array" ref="U47">IF(U7&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U7,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V47" s="91" t="str">
+      <c r="V47" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_STR,lo:8,hi:15</v>
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="E48" s="91" t="str" cm="1">
+      <c r="E48" s="14" t="str" cm="1">
         <f t="array" ref="E48">IF(E8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E8,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F48" s="91" t="str" cm="1">
+      <c r="F48" s="14" t="str" cm="1">
         <f t="array" ref="F48">IF(F8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F8,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AGI,lo:8,hi:15</v>
       </c>
-      <c r="G48" s="91" t="str" cm="1">
+      <c r="G48" s="14" t="str" cm="1">
         <f t="array" ref="G48">IF(G8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G8,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H48" s="91" t="str" cm="1">
+      <c r="H48" s="14" t="str" cm="1">
         <f t="array" ref="H48">IF(H8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H8,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I48" s="91" t="str" cm="1">
+      <c r="I48" s="14" t="str" cm="1">
         <f t="array" ref="I48">IF(I8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I8,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J48" s="91" t="str" cm="1">
+      <c r="J48" s="14" t="str" cm="1">
         <f t="array" ref="J48">IF(J8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J8,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K48" s="91" t="str" cm="1">
+      <c r="K48" s="14" t="str" cm="1">
         <f t="array" ref="K48">IF(K8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K8,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L48" s="91" t="str" cm="1">
+      <c r="L48" s="14" t="str" cm="1">
         <f t="array" ref="L48">IF(L8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L8,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M48" s="91" t="str" cm="1">
+      <c r="M48" s="14" t="str" cm="1">
         <f t="array" ref="M48">IF(M8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M8,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N48" s="91" t="str" cm="1">
+      <c r="N48" s="14" t="str" cm="1">
         <f t="array" ref="N48">IF(N8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N8,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O48" s="91" t="str" cm="1">
+      <c r="O48" s="14" t="str" cm="1">
         <f t="array" ref="O48">IF(O8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O8,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P48" s="91" t="str" cm="1">
+      <c r="P48" s="14" t="str" cm="1">
         <f t="array" ref="P48">IF(P8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P8,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q48" s="91" t="str" cm="1">
+      <c r="Q48" s="14" t="str" cm="1">
         <f t="array" ref="Q48">IF(Q8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q8,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R48" s="91" t="str" cm="1">
+      <c r="R48" s="14" t="str" cm="1">
         <f t="array" ref="R48">IF(R8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R8,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S48" s="91" t="str" cm="1">
+      <c r="S48" s="14" t="str" cm="1">
         <f t="array" ref="S48">IF(S8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S8,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T48" s="91" t="str" cm="1">
+      <c r="T48" s="14" t="str" cm="1">
         <f t="array" ref="T48">IF(T8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T8,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U48" s="91" t="str" cm="1">
+      <c r="U48" s="14" t="str" cm="1">
         <f t="array" ref="U48">IF(U8&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U8,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V48" s="91" t="str">
+      <c r="V48" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AGI,lo:8,hi:15</v>
       </c>
     </row>
     <row r="49" spans="5:22">
-      <c r="E49" s="91" t="str" cm="1">
+      <c r="E49" s="14" t="str" cm="1">
         <f t="array" ref="E49">IF(E9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E9,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F49" s="91" t="str" cm="1">
+      <c r="F49" s="14" t="str" cm="1">
         <f t="array" ref="F49">IF(F9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F9,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G49" s="91" t="str" cm="1">
+      <c r="G49" s="14" t="str" cm="1">
         <f t="array" ref="G49">IF(G9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G9,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_INT,lo:8,hi:15</v>
       </c>
-      <c r="H49" s="91" t="str" cm="1">
+      <c r="H49" s="14" t="str" cm="1">
         <f t="array" ref="H49">IF(H9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H9,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I49" s="91" t="str" cm="1">
+      <c r="I49" s="14" t="str" cm="1">
         <f t="array" ref="I49">IF(I9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I9,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J49" s="91" t="str" cm="1">
+      <c r="J49" s="14" t="str" cm="1">
         <f t="array" ref="J49">IF(J9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J9,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K49" s="91" t="str" cm="1">
+      <c r="K49" s="14" t="str" cm="1">
         <f t="array" ref="K49">IF(K9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K9,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L49" s="91" t="str" cm="1">
+      <c r="L49" s="14" t="str" cm="1">
         <f t="array" ref="L49">IF(L9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L9,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M49" s="91" t="str" cm="1">
+      <c r="M49" s="14" t="str" cm="1">
         <f t="array" ref="M49">IF(M9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M9,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N49" s="91" t="str" cm="1">
+      <c r="N49" s="14" t="str" cm="1">
         <f t="array" ref="N49">IF(N9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N9,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O49" s="91" t="str" cm="1">
+      <c r="O49" s="14" t="str" cm="1">
         <f t="array" ref="O49">IF(O9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O9,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P49" s="91" t="str" cm="1">
+      <c r="P49" s="14" t="str" cm="1">
         <f t="array" ref="P49">IF(P9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P9,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q49" s="91" t="str" cm="1">
+      <c r="Q49" s="14" t="str" cm="1">
         <f t="array" ref="Q49">IF(Q9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q9,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R49" s="91" t="str" cm="1">
+      <c r="R49" s="14" t="str" cm="1">
         <f t="array" ref="R49">IF(R9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R9,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S49" s="91" t="str" cm="1">
+      <c r="S49" s="14" t="str" cm="1">
         <f t="array" ref="S49">IF(S9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S9,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T49" s="91" t="str" cm="1">
+      <c r="T49" s="14" t="str" cm="1">
         <f t="array" ref="T49">IF(T9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T9,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U49" s="91" t="str" cm="1">
+      <c r="U49" s="14" t="str" cm="1">
         <f t="array" ref="U49">IF(U9&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U9,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V49" s="91" t="str">
+      <c r="V49" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_INT,lo:8,hi:15</v>
       </c>
     </row>
     <row r="50" spans="5:22">
-      <c r="E50" s="91" t="str" cm="1">
+      <c r="E50" s="14" t="str" cm="1">
         <f t="array" ref="E50">IF(E10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E10,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F50" s="91" t="str" cm="1">
+      <c r="F50" s="14" t="str" cm="1">
         <f t="array" ref="F50">IF(F10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F10,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G50" s="91" t="str" cm="1">
+      <c r="G50" s="14" t="str" cm="1">
         <f t="array" ref="G50">IF(G10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G10,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H50" s="91" t="str" cm="1">
+      <c r="H50" s="14" t="str" cm="1">
         <f t="array" ref="H50">IF(H10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H10,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_HP,lo:113,hi:225</v>
       </c>
-      <c r="I50" s="91" t="str" cm="1">
+      <c r="I50" s="14" t="str" cm="1">
         <f t="array" ref="I50">IF(I10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I10,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J50" s="91" t="str" cm="1">
+      <c r="J50" s="14" t="str" cm="1">
         <f t="array" ref="J50">IF(J10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J10,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K50" s="91" t="str" cm="1">
+      <c r="K50" s="14" t="str" cm="1">
         <f t="array" ref="K50">IF(K10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K10,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L50" s="91" t="str" cm="1">
+      <c r="L50" s="14" t="str" cm="1">
         <f t="array" ref="L50">IF(L10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L10,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M50" s="91" t="str" cm="1">
+      <c r="M50" s="14" t="str" cm="1">
         <f t="array" ref="M50">IF(M10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M10,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N50" s="91" t="str" cm="1">
+      <c r="N50" s="14" t="str" cm="1">
         <f t="array" ref="N50">IF(N10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N10,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O50" s="91" t="str" cm="1">
+      <c r="O50" s="14" t="str" cm="1">
         <f t="array" ref="O50">IF(O10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O10,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P50" s="91" t="str" cm="1">
+      <c r="P50" s="14" t="str" cm="1">
         <f t="array" ref="P50">IF(P10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P10,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q50" s="91" t="str" cm="1">
+      <c r="Q50" s="14" t="str" cm="1">
         <f t="array" ref="Q50">IF(Q10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q10,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R50" s="91" t="str" cm="1">
+      <c r="R50" s="14" t="str" cm="1">
         <f t="array" ref="R50">IF(R10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R10,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S50" s="91" t="str" cm="1">
+      <c r="S50" s="14" t="str" cm="1">
         <f t="array" ref="S50">IF(S10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S10,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T50" s="91" t="str" cm="1">
+      <c r="T50" s="14" t="str" cm="1">
         <f t="array" ref="T50">IF(T10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T10,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U50" s="91" t="str" cm="1">
+      <c r="U50" s="14" t="str" cm="1">
         <f t="array" ref="U50">IF(U10&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U10,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V50" s="91" t="str">
+      <c r="V50" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_HP,lo:113,hi:225</v>
       </c>
     </row>
     <row r="51" spans="5:22">
-      <c r="E51" s="91" t="str" cm="1">
+      <c r="E51" s="14" t="str" cm="1">
         <f t="array" ref="E51">IF(E11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E11,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_STR,lo:5,hi:9</v>
       </c>
-      <c r="F51" s="91" t="str" cm="1">
+      <c r="F51" s="14" t="str" cm="1">
         <f t="array" ref="F51">IF(F11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F11,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G51" s="91" t="str" cm="1">
+      <c r="G51" s="14" t="str" cm="1">
         <f t="array" ref="G51">IF(G11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G11,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H51" s="91" t="str" cm="1">
+      <c r="H51" s="14" t="str" cm="1">
         <f t="array" ref="H51">IF(H11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H11,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I51" s="91" t="str" cm="1">
+      <c r="I51" s="14" t="str" cm="1">
         <f t="array" ref="I51">IF(I11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I11,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AP,lo:6,hi:11</v>
       </c>
-      <c r="J51" s="91" t="str" cm="1">
+      <c r="J51" s="14" t="str" cm="1">
         <f t="array" ref="J51">IF(J11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J11,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K51" s="91" t="str" cm="1">
+      <c r="K51" s="14" t="str" cm="1">
         <f t="array" ref="K51">IF(K11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K11,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L51" s="91" t="str" cm="1">
+      <c r="L51" s="14" t="str" cm="1">
         <f t="array" ref="L51">IF(L11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L11,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M51" s="91" t="str" cm="1">
+      <c r="M51" s="14" t="str" cm="1">
         <f t="array" ref="M51">IF(M11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M11,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N51" s="91" t="str" cm="1">
+      <c r="N51" s="14" t="str" cm="1">
         <f t="array" ref="N51">IF(N11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N11,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O51" s="91" t="str" cm="1">
+      <c r="O51" s="14" t="str" cm="1">
         <f t="array" ref="O51">IF(O11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O11,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P51" s="91" t="str" cm="1">
+      <c r="P51" s="14" t="str" cm="1">
         <f t="array" ref="P51">IF(P11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P11,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q51" s="91" t="str" cm="1">
+      <c r="Q51" s="14" t="str" cm="1">
         <f t="array" ref="Q51">IF(Q11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q11,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R51" s="91" t="str" cm="1">
+      <c r="R51" s="14" t="str" cm="1">
         <f t="array" ref="R51">IF(R11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R11,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S51" s="91" t="str" cm="1">
+      <c r="S51" s="14" t="str" cm="1">
         <f t="array" ref="S51">IF(S11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S11,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T51" s="91" t="str" cm="1">
+      <c r="T51" s="14" t="str" cm="1">
         <f t="array" ref="T51">IF(T11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T11,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U51" s="91" t="str" cm="1">
+      <c r="U51" s="14" t="str" cm="1">
         <f t="array" ref="U51">IF(U11&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U11,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V51" s="91" t="str">
+      <c r="V51" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_STR,lo:5,hi:9;id:IATTR_AP,lo:6,hi:11</v>
       </c>
     </row>
     <row r="52" spans="5:22">
-      <c r="E52" s="91" t="str" cm="1">
+      <c r="E52" s="14" t="str" cm="1">
         <f t="array" ref="E52">IF(E12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E12,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_STR,lo:5,hi:9</v>
       </c>
-      <c r="F52" s="91" t="str" cm="1">
+      <c r="F52" s="14" t="str" cm="1">
         <f t="array" ref="F52">IF(F12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F12,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G52" s="91" t="str" cm="1">
+      <c r="G52" s="14" t="str" cm="1">
         <f t="array" ref="G52">IF(G12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G12,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H52" s="91" t="str" cm="1">
+      <c r="H52" s="14" t="str" cm="1">
         <f t="array" ref="H52">IF(H12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H12,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I52" s="91" t="str" cm="1">
+      <c r="I52" s="14" t="str" cm="1">
         <f t="array" ref="I52">IF(I12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I12,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J52" s="91" t="str" cm="1">
+      <c r="J52" s="14" t="str" cm="1">
         <f t="array" ref="J52">IF(J12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J12,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_CRIT,lo:2,hi:5</v>
       </c>
-      <c r="K52" s="91" t="str" cm="1">
+      <c r="K52" s="14" t="str" cm="1">
         <f t="array" ref="K52">IF(K12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K12,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L52" s="91" t="str" cm="1">
+      <c r="L52" s="14" t="str" cm="1">
         <f t="array" ref="L52">IF(L12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L12,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M52" s="91" t="str" cm="1">
+      <c r="M52" s="14" t="str" cm="1">
         <f t="array" ref="M52">IF(M12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M12,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N52" s="91" t="str" cm="1">
+      <c r="N52" s="14" t="str" cm="1">
         <f t="array" ref="N52">IF(N12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N12,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O52" s="91" t="str" cm="1">
+      <c r="O52" s="14" t="str" cm="1">
         <f t="array" ref="O52">IF(O12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O12,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P52" s="91" t="str" cm="1">
+      <c r="P52" s="14" t="str" cm="1">
         <f t="array" ref="P52">IF(P12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P12,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q52" s="91" t="str" cm="1">
+      <c r="Q52" s="14" t="str" cm="1">
         <f t="array" ref="Q52">IF(Q12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q12,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R52" s="91" t="str" cm="1">
+      <c r="R52" s="14" t="str" cm="1">
         <f t="array" ref="R52">IF(R12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R12,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S52" s="91" t="str" cm="1">
+      <c r="S52" s="14" t="str" cm="1">
         <f t="array" ref="S52">IF(S12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S12,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T52" s="91" t="str" cm="1">
+      <c r="T52" s="14" t="str" cm="1">
         <f t="array" ref="T52">IF(T12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T12,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U52" s="91" t="str" cm="1">
+      <c r="U52" s="14" t="str" cm="1">
         <f t="array" ref="U52">IF(U12&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U12,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V52" s="91" t="str">
+      <c r="V52" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_STR,lo:5,hi:9;id:IATTR_CRIT,lo:2,hi:5</v>
       </c>
     </row>
     <row r="53" spans="5:22">
-      <c r="E53" s="91" t="str" cm="1">
+      <c r="E53" s="14" t="str" cm="1">
         <f t="array" ref="E53">IF(E13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E13,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F53" s="91" t="str" cm="1">
+      <c r="F53" s="14" t="str" cm="1">
         <f t="array" ref="F53">IF(F13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F13,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AGI,lo:5,hi:9</v>
       </c>
-      <c r="G53" s="91" t="str" cm="1">
+      <c r="G53" s="14" t="str" cm="1">
         <f t="array" ref="G53">IF(G13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G13,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H53" s="91" t="str" cm="1">
+      <c r="H53" s="14" t="str" cm="1">
         <f t="array" ref="H53">IF(H13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H13,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I53" s="91" t="str" cm="1">
+      <c r="I53" s="14" t="str" cm="1">
         <f t="array" ref="I53">IF(I13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I13,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J53" s="91" t="str" cm="1">
+      <c r="J53" s="14" t="str" cm="1">
         <f t="array" ref="J53">IF(J13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J13,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_CRIT,lo:2,hi:5</v>
       </c>
-      <c r="K53" s="91" t="str" cm="1">
+      <c r="K53" s="14" t="str" cm="1">
         <f t="array" ref="K53">IF(K13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K13,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L53" s="91" t="str" cm="1">
+      <c r="L53" s="14" t="str" cm="1">
         <f t="array" ref="L53">IF(L13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L13,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M53" s="91" t="str" cm="1">
+      <c r="M53" s="14" t="str" cm="1">
         <f t="array" ref="M53">IF(M13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M13,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N53" s="91" t="str" cm="1">
+      <c r="N53" s="14" t="str" cm="1">
         <f t="array" ref="N53">IF(N13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N13,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O53" s="91" t="str" cm="1">
+      <c r="O53" s="14" t="str" cm="1">
         <f t="array" ref="O53">IF(O13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O13,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P53" s="91" t="str" cm="1">
+      <c r="P53" s="14" t="str" cm="1">
         <f t="array" ref="P53">IF(P13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P13,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q53" s="91" t="str" cm="1">
+      <c r="Q53" s="14" t="str" cm="1">
         <f t="array" ref="Q53">IF(Q13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q13,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R53" s="91" t="str" cm="1">
+      <c r="R53" s="14" t="str" cm="1">
         <f t="array" ref="R53">IF(R13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R13,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S53" s="91" t="str" cm="1">
+      <c r="S53" s="14" t="str" cm="1">
         <f t="array" ref="S53">IF(S13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S13,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T53" s="91" t="str" cm="1">
+      <c r="T53" s="14" t="str" cm="1">
         <f t="array" ref="T53">IF(T13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T13,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U53" s="91" t="str" cm="1">
+      <c r="U53" s="14" t="str" cm="1">
         <f t="array" ref="U53">IF(U13&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U13,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V53" s="91" t="str">
+      <c r="V53" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AGI,lo:5,hi:9;id:IATTR_CRIT,lo:2,hi:5</v>
       </c>
     </row>
     <row r="54" spans="5:22">
-      <c r="E54" s="91" t="str" cm="1">
+      <c r="E54" s="14" t="str" cm="1">
         <f t="array" ref="E54">IF(E14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E14,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F54" s="91" t="str" cm="1">
+      <c r="F54" s="14" t="str" cm="1">
         <f t="array" ref="F54">IF(F14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F14,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AGI,lo:5,hi:9</v>
       </c>
-      <c r="G54" s="91" t="str" cm="1">
+      <c r="G54" s="14" t="str" cm="1">
         <f t="array" ref="G54">IF(G14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G14,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H54" s="91" t="str" cm="1">
+      <c r="H54" s="14" t="str" cm="1">
         <f t="array" ref="H54">IF(H14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H14,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I54" s="91" t="str" cm="1">
+      <c r="I54" s="14" t="str" cm="1">
         <f t="array" ref="I54">IF(I14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I14,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AP,lo:6,hi:11</v>
       </c>
-      <c r="J54" s="91" t="str" cm="1">
+      <c r="J54" s="14" t="str" cm="1">
         <f t="array" ref="J54">IF(J14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J14,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K54" s="91" t="str" cm="1">
+      <c r="K54" s="14" t="str" cm="1">
         <f t="array" ref="K54">IF(K14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K14,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L54" s="91" t="str" cm="1">
+      <c r="L54" s="14" t="str" cm="1">
         <f t="array" ref="L54">IF(L14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L14,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M54" s="91" t="str" cm="1">
+      <c r="M54" s="14" t="str" cm="1">
         <f t="array" ref="M54">IF(M14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M14,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N54" s="91" t="str" cm="1">
+      <c r="N54" s="14" t="str" cm="1">
         <f t="array" ref="N54">IF(N14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N14,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O54" s="91" t="str" cm="1">
+      <c r="O54" s="14" t="str" cm="1">
         <f t="array" ref="O54">IF(O14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O14,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P54" s="91" t="str" cm="1">
+      <c r="P54" s="14" t="str" cm="1">
         <f t="array" ref="P54">IF(P14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P14,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q54" s="91" t="str" cm="1">
+      <c r="Q54" s="14" t="str" cm="1">
         <f t="array" ref="Q54">IF(Q14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q14,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R54" s="91" t="str" cm="1">
+      <c r="R54" s="14" t="str" cm="1">
         <f t="array" ref="R54">IF(R14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R14,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S54" s="91" t="str" cm="1">
+      <c r="S54" s="14" t="str" cm="1">
         <f t="array" ref="S54">IF(S14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S14,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T54" s="91" t="str" cm="1">
+      <c r="T54" s="14" t="str" cm="1">
         <f t="array" ref="T54">IF(T14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T14,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U54" s="91" t="str" cm="1">
+      <c r="U54" s="14" t="str" cm="1">
         <f t="array" ref="U54">IF(U14&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U14,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V54" s="91" t="str">
+      <c r="V54" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AGI,lo:5,hi:9;id:IATTR_AP,lo:6,hi:11</v>
       </c>
     </row>
     <row r="55" spans="5:22">
-      <c r="E55" s="91" t="str" cm="1">
+      <c r="E55" s="14" t="str" cm="1">
         <f t="array" ref="E55">IF(E15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E15,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F55" s="91" t="str" cm="1">
+      <c r="F55" s="14" t="str" cm="1">
         <f t="array" ref="F55">IF(F15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F15,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G55" s="91" t="str" cm="1">
+      <c r="G55" s="14" t="str" cm="1">
         <f t="array" ref="G55">IF(G15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G15,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_INT,lo:5,hi:9</v>
       </c>
-      <c r="H55" s="91" t="str" cm="1">
+      <c r="H55" s="14" t="str" cm="1">
         <f t="array" ref="H55">IF(H15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H15,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I55" s="91" t="str" cm="1">
+      <c r="I55" s="14" t="str" cm="1">
         <f t="array" ref="I55">IF(I15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I15,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J55" s="91" t="str" cm="1">
+      <c r="J55" s="14" t="str" cm="1">
         <f t="array" ref="J55">IF(J15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J15,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K55" s="91" t="str" cm="1">
+      <c r="K55" s="14" t="str" cm="1">
         <f t="array" ref="K55">IF(K15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K15,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L55" s="91" t="str" cm="1">
+      <c r="L55" s="14" t="str" cm="1">
         <f t="array" ref="L55">IF(L15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L15,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M55" s="91" t="str" cm="1">
+      <c r="M55" s="14" t="str" cm="1">
         <f t="array" ref="M55">IF(M15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M15,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N55" s="91" t="str" cm="1">
+      <c r="N55" s="14" t="str" cm="1">
         <f t="array" ref="N55">IF(N15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N15,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_SHASTE,lo:2,hi:5</v>
       </c>
-      <c r="O55" s="91" t="str" cm="1">
+      <c r="O55" s="14" t="str" cm="1">
         <f t="array" ref="O55">IF(O15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O15,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P55" s="91" t="str" cm="1">
+      <c r="P55" s="14" t="str" cm="1">
         <f t="array" ref="P55">IF(P15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P15,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q55" s="91" t="str" cm="1">
+      <c r="Q55" s="14" t="str" cm="1">
         <f t="array" ref="Q55">IF(Q15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q15,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R55" s="91" t="str" cm="1">
+      <c r="R55" s="14" t="str" cm="1">
         <f t="array" ref="R55">IF(R15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R15,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S55" s="91" t="str" cm="1">
+      <c r="S55" s="14" t="str" cm="1">
         <f t="array" ref="S55">IF(S15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S15,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T55" s="91" t="str" cm="1">
+      <c r="T55" s="14" t="str" cm="1">
         <f t="array" ref="T55">IF(T15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T15,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U55" s="91" t="str" cm="1">
+      <c r="U55" s="14" t="str" cm="1">
         <f t="array" ref="U55">IF(U15&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U15,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V55" s="91" t="str">
+      <c r="V55" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_INT,lo:5,hi:9;id:IATTR_SHASTE,lo:2,hi:5</v>
       </c>
     </row>
     <row r="56" spans="5:22">
-      <c r="E56" s="91" t="str" cm="1">
+      <c r="E56" s="14" t="str" cm="1">
         <f t="array" ref="E56">IF(E16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E16,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F56" s="91" t="str" cm="1">
+      <c r="F56" s="14" t="str" cm="1">
         <f t="array" ref="F56">IF(F16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F16,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G56" s="91" t="str" cm="1">
+      <c r="G56" s="14" t="str" cm="1">
         <f t="array" ref="G56">IF(G16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G16,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_INT,lo:5,hi:9</v>
       </c>
-      <c r="H56" s="91" t="str" cm="1">
+      <c r="H56" s="14" t="str" cm="1">
         <f t="array" ref="H56">IF(H16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H16,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I56" s="91" t="str" cm="1">
+      <c r="I56" s="14" t="str" cm="1">
         <f t="array" ref="I56">IF(I16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I16,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J56" s="91" t="str" cm="1">
+      <c r="J56" s="14" t="str" cm="1">
         <f t="array" ref="J56">IF(J16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J16,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K56" s="91" t="str" cm="1">
+      <c r="K56" s="14" t="str" cm="1">
         <f t="array" ref="K56">IF(K16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K16,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L56" s="91" t="str" cm="1">
+      <c r="L56" s="14" t="str" cm="1">
         <f t="array" ref="L56">IF(L16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L16,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M56" s="91" t="str" cm="1">
+      <c r="M56" s="14" t="str" cm="1">
         <f t="array" ref="M56">IF(M16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M16,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N56" s="91" t="str" cm="1">
+      <c r="N56" s="14" t="str" cm="1">
         <f t="array" ref="N56">IF(N16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N16,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O56" s="91" t="str" cm="1">
+      <c r="O56" s="14" t="str" cm="1">
         <f t="array" ref="O56">IF(O16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O16,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_MREG,lo:1,hi:2</v>
       </c>
-      <c r="P56" s="91" t="str" cm="1">
+      <c r="P56" s="14" t="str" cm="1">
         <f t="array" ref="P56">IF(P16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P16,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q56" s="91" t="str" cm="1">
+      <c r="Q56" s="14" t="str" cm="1">
         <f t="array" ref="Q56">IF(Q16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q16,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R56" s="91" t="str" cm="1">
+      <c r="R56" s="14" t="str" cm="1">
         <f t="array" ref="R56">IF(R16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R16,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S56" s="91" t="str" cm="1">
+      <c r="S56" s="14" t="str" cm="1">
         <f t="array" ref="S56">IF(S16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S16,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T56" s="91" t="str" cm="1">
+      <c r="T56" s="14" t="str" cm="1">
         <f t="array" ref="T56">IF(T16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T16,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U56" s="91" t="str" cm="1">
+      <c r="U56" s="14" t="str" cm="1">
         <f t="array" ref="U56">IF(U16&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U16,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V56" s="91" t="str">
+      <c r="V56" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_INT,lo:5,hi:9;id:IATTR_MREG,lo:1,hi:2</v>
       </c>
     </row>
     <row r="57" spans="5:22">
-      <c r="E57" s="91" t="str" cm="1">
+      <c r="E57" s="14" t="str" cm="1">
         <f t="array" ref="E57">IF(E17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E17,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F57" s="91" t="str" cm="1">
+      <c r="F57" s="14" t="str" cm="1">
         <f t="array" ref="F57">IF(F17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F17,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G57" s="91" t="str" cm="1">
+      <c r="G57" s="14" t="str" cm="1">
         <f t="array" ref="G57">IF(G17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G17,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H57" s="91" t="str" cm="1">
+      <c r="H57" s="14" t="str" cm="1">
         <f t="array" ref="H57">IF(H17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H17,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_HP,lo:68,hi:135</v>
       </c>
-      <c r="I57" s="91" t="str" cm="1">
+      <c r="I57" s="14" t="str" cm="1">
         <f t="array" ref="I57">IF(I17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I17,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J57" s="91" t="str" cm="1">
+      <c r="J57" s="14" t="str" cm="1">
         <f t="array" ref="J57">IF(J17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J17,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K57" s="91" t="str" cm="1">
+      <c r="K57" s="14" t="str" cm="1">
         <f t="array" ref="K57">IF(K17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K17,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L57" s="91" t="str" cm="1">
+      <c r="L57" s="14" t="str" cm="1">
         <f t="array" ref="L57">IF(L17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L17,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M57" s="91" t="str" cm="1">
+      <c r="M57" s="14" t="str" cm="1">
         <f t="array" ref="M57">IF(M17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M17,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N57" s="91" t="str" cm="1">
+      <c r="N57" s="14" t="str" cm="1">
         <f t="array" ref="N57">IF(N17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N17,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O57" s="91" t="str" cm="1">
+      <c r="O57" s="14" t="str" cm="1">
         <f t="array" ref="O57">IF(O17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O17,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P57" s="91" t="str" cm="1">
+      <c r="P57" s="14" t="str" cm="1">
         <f t="array" ref="P57">IF(P17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P17,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q57" s="91" t="str" cm="1">
+      <c r="Q57" s="14" t="str" cm="1">
         <f t="array" ref="Q57">IF(Q17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q17,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R57" s="91" t="str" cm="1">
+      <c r="R57" s="14" t="str" cm="1">
         <f t="array" ref="R57">IF(R17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R17,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_DODGE,lo:2,hi:3</v>
       </c>
-      <c r="S57" s="91" t="str" cm="1">
+      <c r="S57" s="14" t="str" cm="1">
         <f t="array" ref="S57">IF(S17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S17,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T57" s="91" t="str" cm="1">
+      <c r="T57" s="14" t="str" cm="1">
         <f t="array" ref="T57">IF(T17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T17,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U57" s="91" t="str" cm="1">
+      <c r="U57" s="14" t="str" cm="1">
         <f t="array" ref="U57">IF(U17&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U17,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V57" s="91" t="str">
+      <c r="V57" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_HP,lo:68,hi:135;id:IATTR_DODGE,lo:2,hi:3</v>
       </c>
     </row>
     <row r="58" spans="5:22">
-      <c r="E58" s="91" t="str" cm="1">
+      <c r="E58" s="14" t="str" cm="1">
         <f t="array" ref="E58">IF(E18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E18,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F58" s="91" t="str" cm="1">
+      <c r="F58" s="14" t="str" cm="1">
         <f t="array" ref="F58">IF(F18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F18,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G58" s="91" t="str" cm="1">
+      <c r="G58" s="14" t="str" cm="1">
         <f t="array" ref="G58">IF(G18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G18,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H58" s="91" t="str" cm="1">
+      <c r="H58" s="14" t="str" cm="1">
         <f t="array" ref="H58">IF(H18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H18,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I58" s="91" t="str" cm="1">
+      <c r="I58" s="14" t="str" cm="1">
         <f t="array" ref="I58">IF(I18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I18,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J58" s="91" t="str" cm="1">
+      <c r="J58" s="14" t="str" cm="1">
         <f t="array" ref="J58">IF(J18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J18,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K58" s="91" t="str" cm="1">
+      <c r="K58" s="14" t="str" cm="1">
         <f t="array" ref="K58">IF(K18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K18,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L58" s="91" t="str" cm="1">
+      <c r="L58" s="14" t="str" cm="1">
         <f t="array" ref="L58">IF(L18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L18,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M58" s="91" t="str" cm="1">
+      <c r="M58" s="14" t="str" cm="1">
         <f t="array" ref="M58">IF(M18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M18,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N58" s="91" t="str" cm="1">
+      <c r="N58" s="14" t="str" cm="1">
         <f t="array" ref="N58">IF(N18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N18,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O58" s="91" t="str" cm="1">
+      <c r="O58" s="14" t="str" cm="1">
         <f t="array" ref="O58">IF(O18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O18,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P58" s="91" t="str" cm="1">
+      <c r="P58" s="14" t="str" cm="1">
         <f t="array" ref="P58">IF(P18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P18,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q58" s="91" t="str" cm="1">
+      <c r="Q58" s="14" t="str" cm="1">
         <f t="array" ref="Q58">IF(Q18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q18,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R58" s="91" t="str" cm="1">
+      <c r="R58" s="14" t="str" cm="1">
         <f t="array" ref="R58">IF(R18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R18,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S58" s="91" t="str" cm="1">
+      <c r="S58" s="14" t="str" cm="1">
         <f t="array" ref="S58">IF(S18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S18,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_LP,lo:1,hi:3</v>
       </c>
-      <c r="T58" s="91" t="str" cm="1">
+      <c r="T58" s="14" t="str" cm="1">
         <f t="array" ref="T58">IF(T18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T18,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U58" s="91" t="str" cm="1">
+      <c r="U58" s="14" t="str" cm="1">
         <f t="array" ref="U58">IF(U18&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U18,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V58" s="91" t="str">
+      <c r="V58" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_LP,lo:1,hi:3</v>
       </c>
     </row>
     <row r="59" spans="5:22">
-      <c r="E59" s="91" t="str" cm="1">
+      <c r="E59" s="14" t="str" cm="1">
         <f t="array" ref="E59">IF(E19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E19,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F59" s="91" t="str" cm="1">
+      <c r="F59" s="14" t="str" cm="1">
         <f t="array" ref="F59">IF(F19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F19,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G59" s="91" t="str" cm="1">
+      <c r="G59" s="14" t="str" cm="1">
         <f t="array" ref="G59">IF(G19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G19,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H59" s="91" t="str" cm="1">
+      <c r="H59" s="14" t="str" cm="1">
         <f t="array" ref="H59">IF(H19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H19,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I59" s="91" t="str" cm="1">
+      <c r="I59" s="14" t="str" cm="1">
         <f t="array" ref="I59">IF(I19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I19,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J59" s="91" t="str" cm="1">
+      <c r="J59" s="14" t="str" cm="1">
         <f t="array" ref="J59">IF(J19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J19,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K59" s="91" t="str" cm="1">
+      <c r="K59" s="14" t="str" cm="1">
         <f t="array" ref="K59">IF(K19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K19,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L59" s="91" t="str" cm="1">
+      <c r="L59" s="14" t="str" cm="1">
         <f t="array" ref="L59">IF(L19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L19,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M59" s="91" t="str" cm="1">
+      <c r="M59" s="14" t="str" cm="1">
         <f t="array" ref="M59">IF(M19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M19,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N59" s="91" t="str" cm="1">
+      <c r="N59" s="14" t="str" cm="1">
         <f t="array" ref="N59">IF(N19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N19,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O59" s="91" t="str" cm="1">
+      <c r="O59" s="14" t="str" cm="1">
         <f t="array" ref="O59">IF(O19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O19,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P59" s="91" t="str" cm="1">
+      <c r="P59" s="14" t="str" cm="1">
         <f t="array" ref="P59">IF(P19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P19,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q59" s="91" t="str" cm="1">
+      <c r="Q59" s="14" t="str" cm="1">
         <f t="array" ref="Q59">IF(Q19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q19,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R59" s="91" t="str" cm="1">
+      <c r="R59" s="14" t="str" cm="1">
         <f t="array" ref="R59">IF(R19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R19,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_DODGE,lo:2,hi:5</v>
       </c>
-      <c r="S59" s="91" t="str" cm="1">
+      <c r="S59" s="14" t="str" cm="1">
         <f t="array" ref="S59">IF(S19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S19,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T59" s="91" t="str" cm="1">
+      <c r="T59" s="14" t="str" cm="1">
         <f t="array" ref="T59">IF(T19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T19,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U59" s="91" t="str" cm="1">
+      <c r="U59" s="14" t="str" cm="1">
         <f t="array" ref="U59">IF(U19&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U19,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V59" s="91" t="str">
+      <c r="V59" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_DODGE,lo:2,hi:5</v>
       </c>
     </row>
     <row r="60" spans="5:22">
-      <c r="E60" s="91" t="str" cm="1">
+      <c r="E60" s="14" t="str" cm="1">
         <f t="array" ref="E60">IF(E20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E20,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F60" s="91" t="str" cm="1">
+      <c r="F60" s="14" t="str" cm="1">
         <f t="array" ref="F60">IF(F20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F20,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G60" s="91" t="str" cm="1">
+      <c r="G60" s="14" t="str" cm="1">
         <f t="array" ref="G60">IF(G20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G20,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H60" s="91" t="str" cm="1">
+      <c r="H60" s="14" t="str" cm="1">
         <f t="array" ref="H60">IF(H20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H20,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I60" s="91" t="str" cm="1">
+      <c r="I60" s="14" t="str" cm="1">
         <f t="array" ref="I60">IF(I20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I20,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J60" s="91" t="str" cm="1">
+      <c r="J60" s="14" t="str" cm="1">
         <f t="array" ref="J60">IF(J20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J20,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K60" s="91" t="str" cm="1">
+      <c r="K60" s="14" t="str" cm="1">
         <f t="array" ref="K60">IF(K20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K20,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L60" s="91" t="str" cm="1">
+      <c r="L60" s="14" t="str" cm="1">
         <f t="array" ref="L60">IF(L20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L20,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M60" s="91" t="str" cm="1">
+      <c r="M60" s="14" t="str" cm="1">
         <f t="array" ref="M60">IF(M20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M20,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N60" s="91" t="str" cm="1">
+      <c r="N60" s="14" t="str" cm="1">
         <f t="array" ref="N60">IF(N20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N20,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O60" s="91" t="str" cm="1">
+      <c r="O60" s="14" t="str" cm="1">
         <f t="array" ref="O60">IF(O20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O20,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P60" s="91" t="str" cm="1">
+      <c r="P60" s="14" t="str" cm="1">
         <f t="array" ref="P60">IF(P20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P20,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q60" s="91" t="str" cm="1">
+      <c r="Q60" s="14" t="str" cm="1">
         <f t="array" ref="Q60">IF(Q20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q20,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_DEF,lo:2,hi:5</v>
       </c>
-      <c r="R60" s="91" t="str" cm="1">
+      <c r="R60" s="14" t="str" cm="1">
         <f t="array" ref="R60">IF(R20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R20,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S60" s="91" t="str" cm="1">
+      <c r="S60" s="14" t="str" cm="1">
         <f t="array" ref="S60">IF(S20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S20,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T60" s="91" t="str" cm="1">
+      <c r="T60" s="14" t="str" cm="1">
         <f t="array" ref="T60">IF(T20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T20,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U60" s="91" t="str" cm="1">
+      <c r="U60" s="14" t="str" cm="1">
         <f t="array" ref="U60">IF(U20&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U20,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V60" s="91" t="str">
+      <c r="V60" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_DEF,lo:2,hi:5</v>
       </c>
     </row>
     <row r="61" spans="5:22">
-      <c r="E61" s="91" t="str" cm="1">
+      <c r="E61" s="14" t="str" cm="1">
         <f t="array" ref="E61">IF(E21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E21,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F61" s="91" t="str" cm="1">
+      <c r="F61" s="14" t="str" cm="1">
         <f t="array" ref="F61">IF(F21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F21,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G61" s="91" t="str" cm="1">
+      <c r="G61" s="14" t="str" cm="1">
         <f t="array" ref="G61">IF(G21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G21,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H61" s="91" t="str" cm="1">
+      <c r="H61" s="14" t="str" cm="1">
         <f t="array" ref="H61">IF(H21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H21,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I61" s="91" t="str" cm="1">
+      <c r="I61" s="14" t="str" cm="1">
         <f t="array" ref="I61">IF(I21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I21,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J61" s="91" t="str" cm="1">
+      <c r="J61" s="14" t="str" cm="1">
         <f t="array" ref="J61">IF(J21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J21,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K61" s="91" t="str" cm="1">
+      <c r="K61" s="14" t="str" cm="1">
         <f t="array" ref="K61">IF(K21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K21,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L61" s="91" t="str" cm="1">
+      <c r="L61" s="14" t="str" cm="1">
         <f t="array" ref="L61">IF(L21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L21,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M61" s="91" t="str" cm="1">
+      <c r="M61" s="14" t="str" cm="1">
         <f t="array" ref="M61">IF(M21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M21,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N61" s="91" t="str" cm="1">
+      <c r="N61" s="14" t="str" cm="1">
         <f t="array" ref="N61">IF(N21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N21,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O61" s="91" t="str" cm="1">
+      <c r="O61" s="14" t="str" cm="1">
         <f t="array" ref="O61">IF(O21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O21,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_MREG,lo:2,hi:3</v>
       </c>
-      <c r="P61" s="91" t="str" cm="1">
+      <c r="P61" s="14" t="str" cm="1">
         <f t="array" ref="P61">IF(P21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P21,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q61" s="91" t="str" cm="1">
+      <c r="Q61" s="14" t="str" cm="1">
         <f t="array" ref="Q61">IF(Q21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q21,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R61" s="91" t="str" cm="1">
+      <c r="R61" s="14" t="str" cm="1">
         <f t="array" ref="R61">IF(R21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R21,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S61" s="91" t="str" cm="1">
+      <c r="S61" s="14" t="str" cm="1">
         <f t="array" ref="S61">IF(S21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S21,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T61" s="91" t="str" cm="1">
+      <c r="T61" s="14" t="str" cm="1">
         <f t="array" ref="T61">IF(T21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T21,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U61" s="91" t="str" cm="1">
+      <c r="U61" s="14" t="str" cm="1">
         <f t="array" ref="U61">IF(U21&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U21,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V61" s="91" t="str">
+      <c r="V61" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_MREG,lo:2,hi:3</v>
       </c>
     </row>
     <row r="62" spans="5:22">
-      <c r="E62" s="91" t="str" cm="1">
+      <c r="E62" s="14" t="str" cm="1">
         <f t="array" ref="E62">IF(E22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E22,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F62" s="91" t="str" cm="1">
+      <c r="F62" s="14" t="str" cm="1">
         <f t="array" ref="F62">IF(F22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F22,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G62" s="91" t="str" cm="1">
+      <c r="G62" s="14" t="str" cm="1">
         <f t="array" ref="G62">IF(G22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G22,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H62" s="91" t="str" cm="1">
+      <c r="H62" s="14" t="str" cm="1">
         <f t="array" ref="H62">IF(H22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H22,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I62" s="91" t="str" cm="1">
+      <c r="I62" s="14" t="str" cm="1">
         <f t="array" ref="I62">IF(I22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I22,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J62" s="91" t="str" cm="1">
+      <c r="J62" s="14" t="str" cm="1">
         <f t="array" ref="J62">IF(J22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J22,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K62" s="91" t="str" cm="1">
+      <c r="K62" s="14" t="str" cm="1">
         <f t="array" ref="K62">IF(K22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K22,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L62" s="91" t="str" cm="1">
+      <c r="L62" s="14" t="str" cm="1">
         <f t="array" ref="L62">IF(L22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L22,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_SP,lo:10,hi:20</v>
       </c>
-      <c r="M62" s="91" t="str" cm="1">
+      <c r="M62" s="14" t="str" cm="1">
         <f t="array" ref="M62">IF(M22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M22,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N62" s="91" t="str" cm="1">
+      <c r="N62" s="14" t="str" cm="1">
         <f t="array" ref="N62">IF(N22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N22,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O62" s="91" t="str" cm="1">
+      <c r="O62" s="14" t="str" cm="1">
         <f t="array" ref="O62">IF(O22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O22,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P62" s="91" t="str" cm="1">
+      <c r="P62" s="14" t="str" cm="1">
         <f t="array" ref="P62">IF(P22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P22,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q62" s="91" t="str" cm="1">
+      <c r="Q62" s="14" t="str" cm="1">
         <f t="array" ref="Q62">IF(Q22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q22,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R62" s="91" t="str" cm="1">
+      <c r="R62" s="14" t="str" cm="1">
         <f t="array" ref="R62">IF(R22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R22,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S62" s="91" t="str" cm="1">
+      <c r="S62" s="14" t="str" cm="1">
         <f t="array" ref="S62">IF(S22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S22,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T62" s="91" t="str" cm="1">
+      <c r="T62" s="14" t="str" cm="1">
         <f t="array" ref="T62">IF(T22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T22,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U62" s="91" t="str" cm="1">
+      <c r="U62" s="14" t="str" cm="1">
         <f t="array" ref="U62">IF(U22&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U22,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V62" s="91" t="str">
+      <c r="V62" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_SP,lo:10,hi:20</v>
       </c>
     </row>
     <row r="63" spans="5:22">
-      <c r="E63" s="91" t="str" cm="1">
+      <c r="E63" s="14" t="str" cm="1">
         <f t="array" ref="E63">IF(E23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E23,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_STR,lo:4,hi:7</v>
       </c>
-      <c r="F63" s="91" t="str" cm="1">
+      <c r="F63" s="14" t="str" cm="1">
         <f t="array" ref="F63">IF(F23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F23,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G63" s="91" t="str" cm="1">
+      <c r="G63" s="14" t="str" cm="1">
         <f t="array" ref="G63">IF(G23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G23,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H63" s="91" t="str" cm="1">
+      <c r="H63" s="14" t="str" cm="1">
         <f t="array" ref="H63">IF(H23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H23,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I63" s="91" t="str" cm="1">
+      <c r="I63" s="14" t="str" cm="1">
         <f t="array" ref="I63">IF(I23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I23,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J63" s="91" t="str" cm="1">
+      <c r="J63" s="14" t="str" cm="1">
         <f t="array" ref="J63">IF(J23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J23,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K63" s="91" t="str" cm="1">
+      <c r="K63" s="14" t="str" cm="1">
         <f t="array" ref="K63">IF(K23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K23,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L63" s="91" t="str" cm="1">
+      <c r="L63" s="14" t="str" cm="1">
         <f t="array" ref="L63">IF(L23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L23,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M63" s="91" t="str" cm="1">
+      <c r="M63" s="14" t="str" cm="1">
         <f t="array" ref="M63">IF(M23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M23,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N63" s="91" t="str" cm="1">
+      <c r="N63" s="14" t="str" cm="1">
         <f t="array" ref="N63">IF(N23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N23,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O63" s="91" t="str" cm="1">
+      <c r="O63" s="14" t="str" cm="1">
         <f t="array" ref="O63">IF(O23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O23,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P63" s="91" t="str" cm="1">
+      <c r="P63" s="14" t="str" cm="1">
         <f t="array" ref="P63">IF(P23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P23,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q63" s="91" t="str" cm="1">
+      <c r="Q63" s="14" t="str" cm="1">
         <f t="array" ref="Q63">IF(Q23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q23,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R63" s="91" t="str" cm="1">
+      <c r="R63" s="14" t="str" cm="1">
         <f t="array" ref="R63">IF(R23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R23,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S63" s="91" t="str" cm="1">
+      <c r="S63" s="14" t="str" cm="1">
         <f t="array" ref="S63">IF(S23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S23,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T63" s="91" t="str" cm="1">
+      <c r="T63" s="14" t="str" cm="1">
         <f t="array" ref="T63">IF(T23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T23,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U63" s="91" t="str" cm="1">
+      <c r="U63" s="14" t="str" cm="1">
         <f t="array" ref="U63">IF(U23&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U23,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V63" s="91" t="str">
+      <c r="V63" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_STR,lo:4,hi:7</v>
       </c>
     </row>
     <row r="64" spans="5:22">
-      <c r="E64" s="91" t="str" cm="1">
+      <c r="E64" s="14" t="str" cm="1">
         <f t="array" ref="E64">IF(E24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E24,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_STR,lo:8,hi:15</v>
       </c>
-      <c r="F64" s="91" t="str" cm="1">
+      <c r="F64" s="14" t="str" cm="1">
         <f t="array" ref="F64">IF(F24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F24,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G64" s="91" t="str" cm="1">
+      <c r="G64" s="14" t="str" cm="1">
         <f t="array" ref="G64">IF(G24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G24,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H64" s="91" t="str" cm="1">
+      <c r="H64" s="14" t="str" cm="1">
         <f t="array" ref="H64">IF(H24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H24,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I64" s="91" t="str" cm="1">
+      <c r="I64" s="14" t="str" cm="1">
         <f t="array" ref="I64">IF(I24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I24,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J64" s="91" t="str" cm="1">
+      <c r="J64" s="14" t="str" cm="1">
         <f t="array" ref="J64">IF(J24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J24,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K64" s="91" t="str" cm="1">
+      <c r="K64" s="14" t="str" cm="1">
         <f t="array" ref="K64">IF(K24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K24,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L64" s="91" t="str" cm="1">
+      <c r="L64" s="14" t="str" cm="1">
         <f t="array" ref="L64">IF(L24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L24,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M64" s="91" t="str" cm="1">
+      <c r="M64" s="14" t="str" cm="1">
         <f t="array" ref="M64">IF(M24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M24,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N64" s="91" t="str" cm="1">
+      <c r="N64" s="14" t="str" cm="1">
         <f t="array" ref="N64">IF(N24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N24,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O64" s="91" t="str" cm="1">
+      <c r="O64" s="14" t="str" cm="1">
         <f t="array" ref="O64">IF(O24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O24,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P64" s="91" t="str" cm="1">
+      <c r="P64" s="14" t="str" cm="1">
         <f t="array" ref="P64">IF(P24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P24,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q64" s="91" t="str" cm="1">
+      <c r="Q64" s="14" t="str" cm="1">
         <f t="array" ref="Q64">IF(Q24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q24,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R64" s="91" t="str" cm="1">
+      <c r="R64" s="14" t="str" cm="1">
         <f t="array" ref="R64">IF(R24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R24,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S64" s="91" t="str" cm="1">
+      <c r="S64" s="14" t="str" cm="1">
         <f t="array" ref="S64">IF(S24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S24,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T64" s="91" t="str" cm="1">
+      <c r="T64" s="14" t="str" cm="1">
         <f t="array" ref="T64">IF(T24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T24,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U64" s="91" t="str" cm="1">
+      <c r="U64" s="14" t="str" cm="1">
         <f t="array" ref="U64">IF(U24&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U24,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V64" s="91" t="str">
+      <c r="V64" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_STR,lo:8,hi:15</v>
       </c>
     </row>
     <row r="65" spans="5:22">
-      <c r="E65" s="91" t="str" cm="1">
+      <c r="E65" s="14" t="str" cm="1">
         <f t="array" ref="E65">IF(E25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E25,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F65" s="91" t="str" cm="1">
+      <c r="F65" s="14" t="str" cm="1">
         <f t="array" ref="F65">IF(F25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F25,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AGI,lo:4,hi:7</v>
       </c>
-      <c r="G65" s="91" t="str" cm="1">
+      <c r="G65" s="14" t="str" cm="1">
         <f t="array" ref="G65">IF(G25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G25,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H65" s="91" t="str" cm="1">
+      <c r="H65" s="14" t="str" cm="1">
         <f t="array" ref="H65">IF(H25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H25,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I65" s="91" t="str" cm="1">
+      <c r="I65" s="14" t="str" cm="1">
         <f t="array" ref="I65">IF(I25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I25,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J65" s="91" t="str" cm="1">
+      <c r="J65" s="14" t="str" cm="1">
         <f t="array" ref="J65">IF(J25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J25,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K65" s="91" t="str" cm="1">
+      <c r="K65" s="14" t="str" cm="1">
         <f t="array" ref="K65">IF(K25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K25,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L65" s="91" t="str" cm="1">
+      <c r="L65" s="14" t="str" cm="1">
         <f t="array" ref="L65">IF(L25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L25,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M65" s="91" t="str" cm="1">
+      <c r="M65" s="14" t="str" cm="1">
         <f t="array" ref="M65">IF(M25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M25,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N65" s="91" t="str" cm="1">
+      <c r="N65" s="14" t="str" cm="1">
         <f t="array" ref="N65">IF(N25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N25,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O65" s="91" t="str" cm="1">
+      <c r="O65" s="14" t="str" cm="1">
         <f t="array" ref="O65">IF(O25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O25,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P65" s="91" t="str" cm="1">
+      <c r="P65" s="14" t="str" cm="1">
         <f t="array" ref="P65">IF(P25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P25,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q65" s="91" t="str" cm="1">
+      <c r="Q65" s="14" t="str" cm="1">
         <f t="array" ref="Q65">IF(Q25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q25,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R65" s="91" t="str" cm="1">
+      <c r="R65" s="14" t="str" cm="1">
         <f t="array" ref="R65">IF(R25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R25,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S65" s="91" t="str" cm="1">
+      <c r="S65" s="14" t="str" cm="1">
         <f t="array" ref="S65">IF(S25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S25,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T65" s="91" t="str" cm="1">
+      <c r="T65" s="14" t="str" cm="1">
         <f t="array" ref="T65">IF(T25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T25,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U65" s="91" t="str" cm="1">
+      <c r="U65" s="14" t="str" cm="1">
         <f t="array" ref="U65">IF(U25&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U25,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V65" s="91" t="str">
+      <c r="V65" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AGI,lo:4,hi:7</v>
       </c>
     </row>
     <row r="66" spans="5:22">
-      <c r="E66" s="91" t="str" cm="1">
+      <c r="E66" s="14" t="str" cm="1">
         <f t="array" ref="E66">IF(E26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E26,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F66" s="91" t="str" cm="1">
+      <c r="F66" s="14" t="str" cm="1">
         <f t="array" ref="F66">IF(F26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F26,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AGI,lo:8,hi:15</v>
       </c>
-      <c r="G66" s="91" t="str" cm="1">
+      <c r="G66" s="14" t="str" cm="1">
         <f t="array" ref="G66">IF(G26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G26,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H66" s="91" t="str" cm="1">
+      <c r="H66" s="14" t="str" cm="1">
         <f t="array" ref="H66">IF(H26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H26,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I66" s="91" t="str" cm="1">
+      <c r="I66" s="14" t="str" cm="1">
         <f t="array" ref="I66">IF(I26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I26,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J66" s="91" t="str" cm="1">
+      <c r="J66" s="14" t="str" cm="1">
         <f t="array" ref="J66">IF(J26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J26,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K66" s="91" t="str" cm="1">
+      <c r="K66" s="14" t="str" cm="1">
         <f t="array" ref="K66">IF(K26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K26,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L66" s="91" t="str" cm="1">
+      <c r="L66" s="14" t="str" cm="1">
         <f t="array" ref="L66">IF(L26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L26,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M66" s="91" t="str" cm="1">
+      <c r="M66" s="14" t="str" cm="1">
         <f t="array" ref="M66">IF(M26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M26,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N66" s="91" t="str" cm="1">
+      <c r="N66" s="14" t="str" cm="1">
         <f t="array" ref="N66">IF(N26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N26,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O66" s="91" t="str" cm="1">
+      <c r="O66" s="14" t="str" cm="1">
         <f t="array" ref="O66">IF(O26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O26,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P66" s="91" t="str" cm="1">
+      <c r="P66" s="14" t="str" cm="1">
         <f t="array" ref="P66">IF(P26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P26,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q66" s="91" t="str" cm="1">
+      <c r="Q66" s="14" t="str" cm="1">
         <f t="array" ref="Q66">IF(Q26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q26,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R66" s="91" t="str" cm="1">
+      <c r="R66" s="14" t="str" cm="1">
         <f t="array" ref="R66">IF(R26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R26,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S66" s="91" t="str" cm="1">
+      <c r="S66" s="14" t="str" cm="1">
         <f t="array" ref="S66">IF(S26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S26,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T66" s="91" t="str" cm="1">
+      <c r="T66" s="14" t="str" cm="1">
         <f t="array" ref="T66">IF(T26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T26,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U66" s="91" t="str" cm="1">
+      <c r="U66" s="14" t="str" cm="1">
         <f t="array" ref="U66">IF(U26&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U26,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V66" s="91" t="str">
+      <c r="V66" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AGI,lo:8,hi:15</v>
       </c>
     </row>
     <row r="67" spans="5:22">
-      <c r="E67" s="91" t="str" cm="1">
+      <c r="E67" s="14" t="str" cm="1">
         <f t="array" ref="E67">IF(E27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E27,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F67" s="91" t="str" cm="1">
+      <c r="F67" s="14" t="str" cm="1">
         <f t="array" ref="F67">IF(F27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F27,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G67" s="91" t="str" cm="1">
+      <c r="G67" s="14" t="str" cm="1">
         <f t="array" ref="G67">IF(G27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G27,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_INT,lo:4,hi:7</v>
       </c>
-      <c r="H67" s="91" t="str" cm="1">
+      <c r="H67" s="14" t="str" cm="1">
         <f t="array" ref="H67">IF(H27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H27,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I67" s="91" t="str" cm="1">
+      <c r="I67" s="14" t="str" cm="1">
         <f t="array" ref="I67">IF(I27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I27,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J67" s="91" t="str" cm="1">
+      <c r="J67" s="14" t="str" cm="1">
         <f t="array" ref="J67">IF(J27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J27,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K67" s="91" t="str" cm="1">
+      <c r="K67" s="14" t="str" cm="1">
         <f t="array" ref="K67">IF(K27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K27,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L67" s="91" t="str" cm="1">
+      <c r="L67" s="14" t="str" cm="1">
         <f t="array" ref="L67">IF(L27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L27,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M67" s="91" t="str" cm="1">
+      <c r="M67" s="14" t="str" cm="1">
         <f t="array" ref="M67">IF(M27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M27,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N67" s="91" t="str" cm="1">
+      <c r="N67" s="14" t="str" cm="1">
         <f t="array" ref="N67">IF(N27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N27,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O67" s="91" t="str" cm="1">
+      <c r="O67" s="14" t="str" cm="1">
         <f t="array" ref="O67">IF(O27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O27,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P67" s="91" t="str" cm="1">
+      <c r="P67" s="14" t="str" cm="1">
         <f t="array" ref="P67">IF(P27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P27,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q67" s="91" t="str" cm="1">
+      <c r="Q67" s="14" t="str" cm="1">
         <f t="array" ref="Q67">IF(Q27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q27,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R67" s="91" t="str" cm="1">
+      <c r="R67" s="14" t="str" cm="1">
         <f t="array" ref="R67">IF(R27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R27,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S67" s="91" t="str" cm="1">
+      <c r="S67" s="14" t="str" cm="1">
         <f t="array" ref="S67">IF(S27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S27,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T67" s="91" t="str" cm="1">
+      <c r="T67" s="14" t="str" cm="1">
         <f t="array" ref="T67">IF(T27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T27,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U67" s="91" t="str" cm="1">
+      <c r="U67" s="14" t="str" cm="1">
         <f t="array" ref="U67">IF(U27&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U27,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V67" s="91" t="str">
+      <c r="V67" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_INT,lo:4,hi:7</v>
       </c>
     </row>
     <row r="68" spans="5:22">
-      <c r="E68" s="91" t="str" cm="1">
+      <c r="E68" s="14" t="str" cm="1">
         <f t="array" ref="E68">IF(E28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E28,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F68" s="91" t="str" cm="1">
+      <c r="F68" s="14" t="str" cm="1">
         <f t="array" ref="F68">IF(F28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F28,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G68" s="91" t="str" cm="1">
+      <c r="G68" s="14" t="str" cm="1">
         <f t="array" ref="G68">IF(G28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G28,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_INT,lo:8,hi:15</v>
       </c>
-      <c r="H68" s="91" t="str" cm="1">
+      <c r="H68" s="14" t="str" cm="1">
         <f t="array" ref="H68">IF(H28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H28,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I68" s="91" t="str" cm="1">
+      <c r="I68" s="14" t="str" cm="1">
         <f t="array" ref="I68">IF(I28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I28,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J68" s="91" t="str" cm="1">
+      <c r="J68" s="14" t="str" cm="1">
         <f t="array" ref="J68">IF(J28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J28,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K68" s="91" t="str" cm="1">
+      <c r="K68" s="14" t="str" cm="1">
         <f t="array" ref="K68">IF(K28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K28,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L68" s="91" t="str" cm="1">
+      <c r="L68" s="14" t="str" cm="1">
         <f t="array" ref="L68">IF(L28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L28,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M68" s="91" t="str" cm="1">
+      <c r="M68" s="14" t="str" cm="1">
         <f t="array" ref="M68">IF(M28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M28,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N68" s="91" t="str" cm="1">
+      <c r="N68" s="14" t="str" cm="1">
         <f t="array" ref="N68">IF(N28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N28,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O68" s="91" t="str" cm="1">
+      <c r="O68" s="14" t="str" cm="1">
         <f t="array" ref="O68">IF(O28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O28,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P68" s="91" t="str" cm="1">
+      <c r="P68" s="14" t="str" cm="1">
         <f t="array" ref="P68">IF(P28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P28,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q68" s="91" t="str" cm="1">
+      <c r="Q68" s="14" t="str" cm="1">
         <f t="array" ref="Q68">IF(Q28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q28,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R68" s="91" t="str" cm="1">
+      <c r="R68" s="14" t="str" cm="1">
         <f t="array" ref="R68">IF(R28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R28,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S68" s="91" t="str" cm="1">
+      <c r="S68" s="14" t="str" cm="1">
         <f t="array" ref="S68">IF(S28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S28,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T68" s="91" t="str" cm="1">
+      <c r="T68" s="14" t="str" cm="1">
         <f t="array" ref="T68">IF(T28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T28,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U68" s="91" t="str" cm="1">
+      <c r="U68" s="14" t="str" cm="1">
         <f t="array" ref="U68">IF(U28&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U28,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V68" s="91" t="str">
+      <c r="V68" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_INT,lo:8,hi:15</v>
       </c>
     </row>
     <row r="69" spans="5:22">
-      <c r="E69" s="91" t="str" cm="1">
+      <c r="E69" s="14" t="str" cm="1">
         <f t="array" ref="E69">IF(E29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E29,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F69" s="91" t="str" cm="1">
+      <c r="F69" s="14" t="str" cm="1">
         <f t="array" ref="F69">IF(F29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F29,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G69" s="91" t="str" cm="1">
+      <c r="G69" s="14" t="str" cm="1">
         <f t="array" ref="G69">IF(G29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G29,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H69" s="91" t="str" cm="1">
+      <c r="H69" s="14" t="str" cm="1">
         <f t="array" ref="H69">IF(H29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H29,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_HP,lo:57,hi:112</v>
       </c>
-      <c r="I69" s="91" t="str" cm="1">
+      <c r="I69" s="14" t="str" cm="1">
         <f t="array" ref="I69">IF(I29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I29,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J69" s="91" t="str" cm="1">
+      <c r="J69" s="14" t="str" cm="1">
         <f t="array" ref="J69">IF(J29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J29,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K69" s="91" t="str" cm="1">
+      <c r="K69" s="14" t="str" cm="1">
         <f t="array" ref="K69">IF(K29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K29,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L69" s="91" t="str" cm="1">
+      <c r="L69" s="14" t="str" cm="1">
         <f t="array" ref="L69">IF(L29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L29,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M69" s="91" t="str" cm="1">
+      <c r="M69" s="14" t="str" cm="1">
         <f t="array" ref="M69">IF(M29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M29,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N69" s="91" t="str" cm="1">
+      <c r="N69" s="14" t="str" cm="1">
         <f t="array" ref="N69">IF(N29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N29,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O69" s="91" t="str" cm="1">
+      <c r="O69" s="14" t="str" cm="1">
         <f t="array" ref="O69">IF(O29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O29,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P69" s="91" t="str" cm="1">
+      <c r="P69" s="14" t="str" cm="1">
         <f t="array" ref="P69">IF(P29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P29,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q69" s="91" t="str" cm="1">
+      <c r="Q69" s="14" t="str" cm="1">
         <f t="array" ref="Q69">IF(Q29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q29,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R69" s="91" t="str" cm="1">
+      <c r="R69" s="14" t="str" cm="1">
         <f t="array" ref="R69">IF(R29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R29,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S69" s="91" t="str" cm="1">
+      <c r="S69" s="14" t="str" cm="1">
         <f t="array" ref="S69">IF(S29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S29,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T69" s="91" t="str" cm="1">
+      <c r="T69" s="14" t="str" cm="1">
         <f t="array" ref="T69">IF(T29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T29,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U69" s="91" t="str" cm="1">
+      <c r="U69" s="14" t="str" cm="1">
         <f t="array" ref="U69">IF(U29&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U29,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V69" s="91" t="str">
+      <c r="V69" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_HP,lo:57,hi:112</v>
       </c>
     </row>
     <row r="70" spans="5:22">
-      <c r="E70" s="91" t="str" cm="1">
+      <c r="E70" s="14" t="str" cm="1">
         <f t="array" ref="E70">IF(E30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E30,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F70" s="91" t="str" cm="1">
+      <c r="F70" s="14" t="str" cm="1">
         <f t="array" ref="F70">IF(F30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F30,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G70" s="91" t="str" cm="1">
+      <c r="G70" s="14" t="str" cm="1">
         <f t="array" ref="G70">IF(G30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G30,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H70" s="91" t="str" cm="1">
+      <c r="H70" s="14" t="str" cm="1">
         <f t="array" ref="H70">IF(H30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H30,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_HP,lo:113,hi:225</v>
       </c>
-      <c r="I70" s="91" t="str" cm="1">
+      <c r="I70" s="14" t="str" cm="1">
         <f t="array" ref="I70">IF(I30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I30,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J70" s="91" t="str" cm="1">
+      <c r="J70" s="14" t="str" cm="1">
         <f t="array" ref="J70">IF(J30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J30,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K70" s="91" t="str" cm="1">
+      <c r="K70" s="14" t="str" cm="1">
         <f t="array" ref="K70">IF(K30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K30,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L70" s="91" t="str" cm="1">
+      <c r="L70" s="14" t="str" cm="1">
         <f t="array" ref="L70">IF(L30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L30,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M70" s="91" t="str" cm="1">
+      <c r="M70" s="14" t="str" cm="1">
         <f t="array" ref="M70">IF(M30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M30,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N70" s="91" t="str" cm="1">
+      <c r="N70" s="14" t="str" cm="1">
         <f t="array" ref="N70">IF(N30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N30,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O70" s="91" t="str" cm="1">
+      <c r="O70" s="14" t="str" cm="1">
         <f t="array" ref="O70">IF(O30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O30,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P70" s="91" t="str" cm="1">
+      <c r="P70" s="14" t="str" cm="1">
         <f t="array" ref="P70">IF(P30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P30,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q70" s="91" t="str" cm="1">
+      <c r="Q70" s="14" t="str" cm="1">
         <f t="array" ref="Q70">IF(Q30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q30,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R70" s="91" t="str" cm="1">
+      <c r="R70" s="14" t="str" cm="1">
         <f t="array" ref="R70">IF(R30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R30,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S70" s="91" t="str" cm="1">
+      <c r="S70" s="14" t="str" cm="1">
         <f t="array" ref="S70">IF(S30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S30,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T70" s="91" t="str" cm="1">
+      <c r="T70" s="14" t="str" cm="1">
         <f t="array" ref="T70">IF(T30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T30,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U70" s="91" t="str" cm="1">
+      <c r="U70" s="14" t="str" cm="1">
         <f t="array" ref="U70">IF(U30&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U30,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V70" s="91" t="str">
+      <c r="V70" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_HP,lo:113,hi:225</v>
       </c>
     </row>
     <row r="71" spans="5:22">
-      <c r="E71" s="91" t="str" cm="1">
+      <c r="E71" s="14" t="str" cm="1">
         <f t="array" ref="E71">IF(E31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E31,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F71" s="91" t="str" cm="1">
+      <c r="F71" s="14" t="str" cm="1">
         <f t="array" ref="F71">IF(F31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F31,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G71" s="91" t="str" cm="1">
+      <c r="G71" s="14" t="str" cm="1">
         <f t="array" ref="G71">IF(G31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G31,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H71" s="91" t="str" cm="1">
+      <c r="H71" s="14" t="str" cm="1">
         <f t="array" ref="H71">IF(H31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H31,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I71" s="91" t="str" cm="1">
+      <c r="I71" s="14" t="str" cm="1">
         <f t="array" ref="I71">IF(I31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I31,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AP,lo:5,hi:10</v>
       </c>
-      <c r="J71" s="91" t="str" cm="1">
+      <c r="J71" s="14" t="str" cm="1">
         <f t="array" ref="J71">IF(J31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J31,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K71" s="91" t="str" cm="1">
+      <c r="K71" s="14" t="str" cm="1">
         <f t="array" ref="K71">IF(K31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K31,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L71" s="91" t="str" cm="1">
+      <c r="L71" s="14" t="str" cm="1">
         <f t="array" ref="L71">IF(L31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L31,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M71" s="91" t="str" cm="1">
+      <c r="M71" s="14" t="str" cm="1">
         <f t="array" ref="M71">IF(M31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M31,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N71" s="91" t="str" cm="1">
+      <c r="N71" s="14" t="str" cm="1">
         <f t="array" ref="N71">IF(N31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N31,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O71" s="91" t="str" cm="1">
+      <c r="O71" s="14" t="str" cm="1">
         <f t="array" ref="O71">IF(O31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O31,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P71" s="91" t="str" cm="1">
+      <c r="P71" s="14" t="str" cm="1">
         <f t="array" ref="P71">IF(P31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P31,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q71" s="91" t="str" cm="1">
+      <c r="Q71" s="14" t="str" cm="1">
         <f t="array" ref="Q71">IF(Q31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q31,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R71" s="91" t="str" cm="1">
+      <c r="R71" s="14" t="str" cm="1">
         <f t="array" ref="R71">IF(R31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R31,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S71" s="91" t="str" cm="1">
+      <c r="S71" s="14" t="str" cm="1">
         <f t="array" ref="S71">IF(S31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S31,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T71" s="91" t="str" cm="1">
+      <c r="T71" s="14" t="str" cm="1">
         <f t="array" ref="T71">IF(T31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T31,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U71" s="91" t="str" cm="1">
+      <c r="U71" s="14" t="str" cm="1">
         <f t="array" ref="U71">IF(U31&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U31,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V71" s="91" t="str">
+      <c r="V71" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AP,lo:5,hi:10</v>
       </c>
     </row>
     <row r="72" spans="5:22">
-      <c r="E72" s="91" t="str" cm="1">
+      <c r="E72" s="14" t="str" cm="1">
         <f t="array" ref="E72">IF(E32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E32,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F72" s="91" t="str" cm="1">
+      <c r="F72" s="14" t="str" cm="1">
         <f t="array" ref="F72">IF(F32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F32,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G72" s="91" t="str" cm="1">
+      <c r="G72" s="14" t="str" cm="1">
         <f t="array" ref="G72">IF(G32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G32,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H72" s="91" t="str" cm="1">
+      <c r="H72" s="14" t="str" cm="1">
         <f t="array" ref="H72">IF(H32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H32,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I72" s="91" t="str" cm="1">
+      <c r="I72" s="14" t="str" cm="1">
         <f t="array" ref="I72">IF(I32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I32,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_AP,lo:10,hi:20</v>
       </c>
-      <c r="J72" s="91" t="str" cm="1">
+      <c r="J72" s="14" t="str" cm="1">
         <f t="array" ref="J72">IF(J32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J32,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K72" s="91" t="str" cm="1">
+      <c r="K72" s="14" t="str" cm="1">
         <f t="array" ref="K72">IF(K32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K32,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L72" s="91" t="str" cm="1">
+      <c r="L72" s="14" t="str" cm="1">
         <f t="array" ref="L72">IF(L32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L32,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M72" s="91" t="str" cm="1">
+      <c r="M72" s="14" t="str" cm="1">
         <f t="array" ref="M72">IF(M32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M32,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N72" s="91" t="str" cm="1">
+      <c r="N72" s="14" t="str" cm="1">
         <f t="array" ref="N72">IF(N32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N32,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O72" s="91" t="str" cm="1">
+      <c r="O72" s="14" t="str" cm="1">
         <f t="array" ref="O72">IF(O32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O32,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P72" s="91" t="str" cm="1">
+      <c r="P72" s="14" t="str" cm="1">
         <f t="array" ref="P72">IF(P32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P32,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q72" s="91" t="str" cm="1">
+      <c r="Q72" s="14" t="str" cm="1">
         <f t="array" ref="Q72">IF(Q32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q32,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R72" s="91" t="str" cm="1">
+      <c r="R72" s="14" t="str" cm="1">
         <f t="array" ref="R72">IF(R32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R32,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S72" s="91" t="str" cm="1">
+      <c r="S72" s="14" t="str" cm="1">
         <f t="array" ref="S72">IF(S32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S32,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T72" s="91" t="str" cm="1">
+      <c r="T72" s="14" t="str" cm="1">
         <f t="array" ref="T72">IF(T32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T32,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U72" s="91" t="str" cm="1">
+      <c r="U72" s="14" t="str" cm="1">
         <f t="array" ref="U72">IF(U32&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U32,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V72" s="91" t="str">
+      <c r="V72" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_AP,lo:10,hi:20</v>
       </c>
     </row>
     <row r="73" spans="5:22">
-      <c r="E73" s="91" t="str" cm="1">
+      <c r="E73" s="14" t="str" cm="1">
         <f t="array" ref="E73">IF(E33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E33,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F73" s="91" t="str" cm="1">
+      <c r="F73" s="14" t="str" cm="1">
         <f t="array" ref="F73">IF(F33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F33,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G73" s="91" t="str" cm="1">
+      <c r="G73" s="14" t="str" cm="1">
         <f t="array" ref="G73">IF(G33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G33,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H73" s="91" t="str" cm="1">
+      <c r="H73" s="14" t="str" cm="1">
         <f t="array" ref="H73">IF(H33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H33,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I73" s="91" t="str" cm="1">
+      <c r="I73" s="14" t="str" cm="1">
         <f t="array" ref="I73">IF(I33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I33,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J73" s="91" t="str" cm="1">
+      <c r="J73" s="14" t="str" cm="1">
         <f t="array" ref="J73">IF(J33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J33,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K73" s="91" t="str" cm="1">
+      <c r="K73" s="14" t="str" cm="1">
         <f t="array" ref="K73">IF(K33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K33,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L73" s="91" t="str" cm="1">
+      <c r="L73" s="14" t="str" cm="1">
         <f t="array" ref="L73">IF(L33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L33,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_SP,lo:8,hi:12</v>
       </c>
-      <c r="M73" s="91" t="str" cm="1">
+      <c r="M73" s="14" t="str" cm="1">
         <f t="array" ref="M73">IF(M33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M33,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N73" s="91" t="str" cm="1">
+      <c r="N73" s="14" t="str" cm="1">
         <f t="array" ref="N73">IF(N33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N33,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O73" s="91" t="str" cm="1">
+      <c r="O73" s="14" t="str" cm="1">
         <f t="array" ref="O73">IF(O33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O33,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P73" s="91" t="str" cm="1">
+      <c r="P73" s="14" t="str" cm="1">
         <f t="array" ref="P73">IF(P33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P33,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q73" s="91" t="str" cm="1">
+      <c r="Q73" s="14" t="str" cm="1">
         <f t="array" ref="Q73">IF(Q33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q33,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R73" s="91" t="str" cm="1">
+      <c r="R73" s="14" t="str" cm="1">
         <f t="array" ref="R73">IF(R33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R33,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S73" s="91" t="str" cm="1">
+      <c r="S73" s="14" t="str" cm="1">
         <f t="array" ref="S73">IF(S33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S33,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T73" s="91" t="str" cm="1">
+      <c r="T73" s="14" t="str" cm="1">
         <f t="array" ref="T73">IF(T33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T33,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U73" s="91" t="str" cm="1">
+      <c r="U73" s="14" t="str" cm="1">
         <f t="array" ref="U73">IF(U33&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U33,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V73" s="91" t="str">
+      <c r="V73" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_SP,lo:8,hi:12</v>
       </c>
     </row>
     <row r="74" spans="5:22">
-      <c r="E74" s="91" t="str" cm="1">
+      <c r="E74" s="14" t="str" cm="1">
         <f t="array" ref="E74">IF(E34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E34,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F74" s="91" t="str" cm="1">
+      <c r="F74" s="14" t="str" cm="1">
         <f t="array" ref="F74">IF(F34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F34,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G74" s="91" t="str" cm="1">
+      <c r="G74" s="14" t="str" cm="1">
         <f t="array" ref="G74">IF(G34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G34,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H74" s="91" t="str" cm="1">
+      <c r="H74" s="14" t="str" cm="1">
         <f t="array" ref="H74">IF(H34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H34,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I74" s="91" t="str" cm="1">
+      <c r="I74" s="14" t="str" cm="1">
         <f t="array" ref="I74">IF(I34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I34,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J74" s="91" t="str" cm="1">
+      <c r="J74" s="14" t="str" cm="1">
         <f t="array" ref="J74">IF(J34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J34,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K74" s="91" t="str" cm="1">
+      <c r="K74" s="14" t="str" cm="1">
         <f t="array" ref="K74">IF(K34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K34,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L74" s="91" t="str" cm="1">
+      <c r="L74" s="14" t="str" cm="1">
         <f t="array" ref="L74">IF(L34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L34,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_SP,lo:13,hi:20</v>
       </c>
-      <c r="M74" s="91" t="str" cm="1">
+      <c r="M74" s="14" t="str" cm="1">
         <f t="array" ref="M74">IF(M34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M34,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N74" s="91" t="str" cm="1">
+      <c r="N74" s="14" t="str" cm="1">
         <f t="array" ref="N74">IF(N34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N34,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O74" s="91" t="str" cm="1">
+      <c r="O74" s="14" t="str" cm="1">
         <f t="array" ref="O74">IF(O34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O34,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P74" s="91" t="str" cm="1">
+      <c r="P74" s="14" t="str" cm="1">
         <f t="array" ref="P74">IF(P34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P34,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q74" s="91" t="str" cm="1">
+      <c r="Q74" s="14" t="str" cm="1">
         <f t="array" ref="Q74">IF(Q34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q34,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R74" s="91" t="str" cm="1">
+      <c r="R74" s="14" t="str" cm="1">
         <f t="array" ref="R74">IF(R34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R34,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S74" s="91" t="str" cm="1">
+      <c r="S74" s="14" t="str" cm="1">
         <f t="array" ref="S74">IF(S34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S34,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T74" s="91" t="str" cm="1">
+      <c r="T74" s="14" t="str" cm="1">
         <f t="array" ref="T74">IF(T34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T34,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U74" s="91" t="str" cm="1">
+      <c r="U74" s="14" t="str" cm="1">
         <f t="array" ref="U74">IF(U34&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U34,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V74" s="91" t="str">
+      <c r="V74" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_SP,lo:13,hi:20</v>
       </c>
     </row>
     <row r="75" spans="5:22">
-      <c r="E75" s="91" t="str" cm="1">
+      <c r="E75" s="14" t="str" cm="1">
         <f t="array" ref="E75">IF(E35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E35,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F75" s="91" t="str" cm="1">
+      <c r="F75" s="14" t="str" cm="1">
         <f t="array" ref="F75">IF(F35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F35,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G75" s="91" t="str" cm="1">
+      <c r="G75" s="14" t="str" cm="1">
         <f t="array" ref="G75">IF(G35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G35,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H75" s="91" t="str" cm="1">
+      <c r="H75" s="14" t="str" cm="1">
         <f t="array" ref="H75">IF(H35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H35,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I75" s="91" t="str" cm="1">
+      <c r="I75" s="14" t="str" cm="1">
         <f t="array" ref="I75">IF(I35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I35,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J75" s="91" t="str" cm="1">
+      <c r="J75" s="14" t="str" cm="1">
         <f t="array" ref="J75">IF(J35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J35,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K75" s="91" t="str" cm="1">
+      <c r="K75" s="14" t="str" cm="1">
         <f t="array" ref="K75">IF(K35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K35,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L75" s="91" t="str" cm="1">
+      <c r="L75" s="14" t="str" cm="1">
         <f t="array" ref="L75">IF(L35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L35,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M75" s="91" t="str" cm="1">
+      <c r="M75" s="14" t="str" cm="1">
         <f t="array" ref="M75">IF(M35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M35,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N75" s="91" t="str" cm="1">
+      <c r="N75" s="14" t="str" cm="1">
         <f t="array" ref="N75">IF(N35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N35,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O75" s="91" t="str" cm="1">
+      <c r="O75" s="14" t="str" cm="1">
         <f t="array" ref="O75">IF(O35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O35,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_MREG,lo:1,hi:1</v>
       </c>
-      <c r="P75" s="91" t="str" cm="1">
+      <c r="P75" s="14" t="str" cm="1">
         <f t="array" ref="P75">IF(P35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P35,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q75" s="91" t="str" cm="1">
+      <c r="Q75" s="14" t="str" cm="1">
         <f t="array" ref="Q75">IF(Q35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q35,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R75" s="91" t="str" cm="1">
+      <c r="R75" s="14" t="str" cm="1">
         <f t="array" ref="R75">IF(R35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R35,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S75" s="91" t="str" cm="1">
+      <c r="S75" s="14" t="str" cm="1">
         <f t="array" ref="S75">IF(S35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S35,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T75" s="91" t="str" cm="1">
+      <c r="T75" s="14" t="str" cm="1">
         <f t="array" ref="T75">IF(T35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T35,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U75" s="91" t="str" cm="1">
+      <c r="U75" s="14" t="str" cm="1">
         <f t="array" ref="U75">IF(U35&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U35,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V75" s="91" t="str">
+      <c r="V75" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_MREG,lo:1,hi:1</v>
       </c>
     </row>
     <row r="76" spans="5:22">
-      <c r="E76" s="91" t="str" cm="1">
+      <c r="E76" s="14" t="str" cm="1">
         <f t="array" ref="E76">IF(E36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E36,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F76" s="91" t="str" cm="1">
+      <c r="F76" s="14" t="str" cm="1">
         <f t="array" ref="F76">IF(F36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F36,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G76" s="91" t="str" cm="1">
+      <c r="G76" s="14" t="str" cm="1">
         <f t="array" ref="G76">IF(G36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G36,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H76" s="91" t="str" cm="1">
+      <c r="H76" s="14" t="str" cm="1">
         <f t="array" ref="H76">IF(H36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H36,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I76" s="91" t="str" cm="1">
+      <c r="I76" s="14" t="str" cm="1">
         <f t="array" ref="I76">IF(I36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I36,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J76" s="91" t="str" cm="1">
+      <c r="J76" s="14" t="str" cm="1">
         <f t="array" ref="J76">IF(J36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J36,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K76" s="91" t="str" cm="1">
+      <c r="K76" s="14" t="str" cm="1">
         <f t="array" ref="K76">IF(K36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K36,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L76" s="91" t="str" cm="1">
+      <c r="L76" s="14" t="str" cm="1">
         <f t="array" ref="L76">IF(L36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L36,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M76" s="91" t="str" cm="1">
+      <c r="M76" s="14" t="str" cm="1">
         <f t="array" ref="M76">IF(M36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M36,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N76" s="91" t="str" cm="1">
+      <c r="N76" s="14" t="str" cm="1">
         <f t="array" ref="N76">IF(N36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N36,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O76" s="91" t="str" cm="1">
+      <c r="O76" s="14" t="str" cm="1">
         <f t="array" ref="O76">IF(O36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O36,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_MREG,lo:2,hi:3</v>
       </c>
-      <c r="P76" s="91" t="str" cm="1">
+      <c r="P76" s="14" t="str" cm="1">
         <f t="array" ref="P76">IF(P36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P36,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q76" s="91" t="str" cm="1">
+      <c r="Q76" s="14" t="str" cm="1">
         <f t="array" ref="Q76">IF(Q36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q36,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R76" s="91" t="str" cm="1">
+      <c r="R76" s="14" t="str" cm="1">
         <f t="array" ref="R76">IF(R36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R36,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S76" s="91" t="str" cm="1">
+      <c r="S76" s="14" t="str" cm="1">
         <f t="array" ref="S76">IF(S36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S36,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T76" s="91" t="str" cm="1">
+      <c r="T76" s="14" t="str" cm="1">
         <f t="array" ref="T76">IF(T36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T36,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U76" s="91" t="str" cm="1">
+      <c r="U76" s="14" t="str" cm="1">
         <f t="array" ref="U76">IF(U36&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U36,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V76" s="91" t="str">
+      <c r="V76" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_MREG,lo:2,hi:3</v>
       </c>
     </row>
     <row r="77" spans="5:22">
-      <c r="E77" s="91" t="str" cm="1">
+      <c r="E77" s="14" t="str" cm="1">
         <f t="array" ref="E77">IF(E37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E37,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F77" s="91" t="str" cm="1">
+      <c r="F77" s="14" t="str" cm="1">
         <f t="array" ref="F77">IF(F37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F37,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G77" s="91" t="str" cm="1">
+      <c r="G77" s="14" t="str" cm="1">
         <f t="array" ref="G77">IF(G37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G37,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H77" s="91" t="str" cm="1">
+      <c r="H77" s="14" t="str" cm="1">
         <f t="array" ref="H77">IF(H37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H37,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I77" s="91" t="str" cm="1">
+      <c r="I77" s="14" t="str" cm="1">
         <f t="array" ref="I77">IF(I37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I37,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J77" s="91" t="str" cm="1">
+      <c r="J77" s="14" t="str" cm="1">
         <f t="array" ref="J77">IF(J37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J37,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K77" s="91" t="str" cm="1">
+      <c r="K77" s="14" t="str" cm="1">
         <f t="array" ref="K77">IF(K37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K37,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L77" s="91" t="str" cm="1">
+      <c r="L77" s="14" t="str" cm="1">
         <f t="array" ref="L77">IF(L37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L37,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M77" s="91" t="str" cm="1">
+      <c r="M77" s="14" t="str" cm="1">
         <f t="array" ref="M77">IF(M37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M37,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N77" s="91" t="str" cm="1">
+      <c r="N77" s="14" t="str" cm="1">
         <f t="array" ref="N77">IF(N37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N37,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O77" s="91" t="str" cm="1">
+      <c r="O77" s="14" t="str" cm="1">
         <f t="array" ref="O77">IF(O37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O37,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P77" s="91" t="str" cm="1">
+      <c r="P77" s="14" t="str" cm="1">
         <f t="array" ref="P77">IF(P37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P37,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q77" s="91" t="str" cm="1">
+      <c r="Q77" s="14" t="str" cm="1">
         <f t="array" ref="Q77">IF(Q37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q37,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_DEF,lo:1,hi:2</v>
       </c>
-      <c r="R77" s="91" t="str" cm="1">
+      <c r="R77" s="14" t="str" cm="1">
         <f t="array" ref="R77">IF(R37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R37,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S77" s="91" t="str" cm="1">
+      <c r="S77" s="14" t="str" cm="1">
         <f t="array" ref="S77">IF(S37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S37,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T77" s="91" t="str" cm="1">
+      <c r="T77" s="14" t="str" cm="1">
         <f t="array" ref="T77">IF(T37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T37,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U77" s="91" t="str" cm="1">
+      <c r="U77" s="14" t="str" cm="1">
         <f t="array" ref="U77">IF(U37&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U37,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V77" s="91" t="str">
+      <c r="V77" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_DEF,lo:1,hi:2</v>
       </c>
     </row>
     <row r="78" spans="5:22">
-      <c r="E78" s="91" t="str" cm="1">
+      <c r="E78" s="14" t="str" cm="1">
         <f t="array" ref="E78">IF(E38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E38,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F78" s="91" t="str" cm="1">
+      <c r="F78" s="14" t="str" cm="1">
         <f t="array" ref="F78">IF(F38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F38,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G78" s="91" t="str" cm="1">
+      <c r="G78" s="14" t="str" cm="1">
         <f t="array" ref="G78">IF(G38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G38,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H78" s="91" t="str" cm="1">
+      <c r="H78" s="14" t="str" cm="1">
         <f t="array" ref="H78">IF(H38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H38,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I78" s="91" t="str" cm="1">
+      <c r="I78" s="14" t="str" cm="1">
         <f t="array" ref="I78">IF(I38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I38,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J78" s="91" t="str" cm="1">
+      <c r="J78" s="14" t="str" cm="1">
         <f t="array" ref="J78">IF(J38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J38,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K78" s="91" t="str" cm="1">
+      <c r="K78" s="14" t="str" cm="1">
         <f t="array" ref="K78">IF(K38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K38,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L78" s="91" t="str" cm="1">
+      <c r="L78" s="14" t="str" cm="1">
         <f t="array" ref="L78">IF(L38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L38,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M78" s="91" t="str" cm="1">
+      <c r="M78" s="14" t="str" cm="1">
         <f t="array" ref="M78">IF(M38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M38,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N78" s="91" t="str" cm="1">
+      <c r="N78" s="14" t="str" cm="1">
         <f t="array" ref="N78">IF(N38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N38,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O78" s="91" t="str" cm="1">
+      <c r="O78" s="14" t="str" cm="1">
         <f t="array" ref="O78">IF(O38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O38,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P78" s="91" t="str" cm="1">
+      <c r="P78" s="14" t="str" cm="1">
         <f t="array" ref="P78">IF(P38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P38,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q78" s="91" t="str" cm="1">
+      <c r="Q78" s="14" t="str" cm="1">
         <f t="array" ref="Q78">IF(Q38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q38,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_DEF,lo:3,hi:5</v>
       </c>
-      <c r="R78" s="91" t="str" cm="1">
+      <c r="R78" s="14" t="str" cm="1">
         <f t="array" ref="R78">IF(R38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R38,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S78" s="91" t="str" cm="1">
+      <c r="S78" s="14" t="str" cm="1">
         <f t="array" ref="S78">IF(S38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S38,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T78" s="91" t="str" cm="1">
+      <c r="T78" s="14" t="str" cm="1">
         <f t="array" ref="T78">IF(T38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T38,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U78" s="91" t="str" cm="1">
+      <c r="U78" s="14" t="str" cm="1">
         <f t="array" ref="U78">IF(U38&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U38,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V78" s="91" t="str">
+      <c r="V78" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_DEF,lo:3,hi:5</v>
       </c>
     </row>
     <row r="79" spans="5:22">
-      <c r="E79" s="91" t="str" cm="1">
+      <c r="E79" s="14" t="str" cm="1">
         <f t="array" ref="E79">IF(E39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E39,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F79" s="91" t="str" cm="1">
+      <c r="F79" s="14" t="str" cm="1">
         <f t="array" ref="F79">IF(F39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F39,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G79" s="91" t="str" cm="1">
+      <c r="G79" s="14" t="str" cm="1">
         <f t="array" ref="G79">IF(G39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G39,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H79" s="91" t="str" cm="1">
+      <c r="H79" s="14" t="str" cm="1">
         <f t="array" ref="H79">IF(H39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H39,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I79" s="91" t="str" cm="1">
+      <c r="I79" s="14" t="str" cm="1">
         <f t="array" ref="I79">IF(I39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I39,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J79" s="91" t="str" cm="1">
+      <c r="J79" s="14" t="str" cm="1">
         <f t="array" ref="J79">IF(J39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J39,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K79" s="91" t="str" cm="1">
+      <c r="K79" s="14" t="str" cm="1">
         <f t="array" ref="K79">IF(K39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K39,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L79" s="91" t="str" cm="1">
+      <c r="L79" s="14" t="str" cm="1">
         <f t="array" ref="L79">IF(L39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L39,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M79" s="91" t="str" cm="1">
+      <c r="M79" s="14" t="str" cm="1">
         <f t="array" ref="M79">IF(M39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M39,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N79" s="91" t="str" cm="1">
+      <c r="N79" s="14" t="str" cm="1">
         <f t="array" ref="N79">IF(N39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N39,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O79" s="91" t="str" cm="1">
+      <c r="O79" s="14" t="str" cm="1">
         <f t="array" ref="O79">IF(O39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O39,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P79" s="91" t="str" cm="1">
+      <c r="P79" s="14" t="str" cm="1">
         <f t="array" ref="P79">IF(P39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P39,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_HREG,lo:2,hi:4</v>
       </c>
-      <c r="Q79" s="91" t="str" cm="1">
+      <c r="Q79" s="14" t="str" cm="1">
         <f t="array" ref="Q79">IF(Q39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q39,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R79" s="91" t="str" cm="1">
+      <c r="R79" s="14" t="str" cm="1">
         <f t="array" ref="R79">IF(R39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R39,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S79" s="91" t="str" cm="1">
+      <c r="S79" s="14" t="str" cm="1">
         <f t="array" ref="S79">IF(S39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S39,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T79" s="91" t="str" cm="1">
+      <c r="T79" s="14" t="str" cm="1">
         <f t="array" ref="T79">IF(T39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T39,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U79" s="91" t="str" cm="1">
+      <c r="U79" s="14" t="str" cm="1">
         <f t="array" ref="U79">IF(U39&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U39,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V79" s="91" t="str">
+      <c r="V79" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_HREG,lo:2,hi:4</v>
       </c>
     </row>
     <row r="80" spans="5:22">
-      <c r="E80" s="91" t="str" cm="1">
+      <c r="E80" s="14" t="str" cm="1">
         <f t="array" ref="E80">IF(E40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E40,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F80" s="91" t="str" cm="1">
+      <c r="F80" s="14" t="str" cm="1">
         <f t="array" ref="F80">IF(F40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F40,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G80" s="91" t="str" cm="1">
+      <c r="G80" s="14" t="str" cm="1">
         <f t="array" ref="G80">IF(G40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G40,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H80" s="91" t="str" cm="1">
+      <c r="H80" s="14" t="str" cm="1">
         <f t="array" ref="H80">IF(H40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H40,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I80" s="91" t="str" cm="1">
+      <c r="I80" s="14" t="str" cm="1">
         <f t="array" ref="I80">IF(I40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I40,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J80" s="91" t="str" cm="1">
+      <c r="J80" s="14" t="str" cm="1">
         <f t="array" ref="J80">IF(J40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J40,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K80" s="91" t="str" cm="1">
+      <c r="K80" s="14" t="str" cm="1">
         <f t="array" ref="K80">IF(K40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K40,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L80" s="91" t="str" cm="1">
+      <c r="L80" s="14" t="str" cm="1">
         <f t="array" ref="L80">IF(L40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L40,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M80" s="91" t="str" cm="1">
+      <c r="M80" s="14" t="str" cm="1">
         <f t="array" ref="M80">IF(M40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M40,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N80" s="91" t="str" cm="1">
+      <c r="N80" s="14" t="str" cm="1">
         <f t="array" ref="N80">IF(N40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N40,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O80" s="91" t="str" cm="1">
+      <c r="O80" s="14" t="str" cm="1">
         <f t="array" ref="O80">IF(O40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O40,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P80" s="91" t="str" cm="1">
+      <c r="P80" s="14" t="str" cm="1">
         <f t="array" ref="P80">IF(P40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P40,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_HREG,lo:4,hi:8</v>
       </c>
-      <c r="Q80" s="91" t="str" cm="1">
+      <c r="Q80" s="14" t="str" cm="1">
         <f t="array" ref="Q80">IF(Q40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q40,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R80" s="91" t="str" cm="1">
+      <c r="R80" s="14" t="str" cm="1">
         <f t="array" ref="R80">IF(R40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R40,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S80" s="91" t="str" cm="1">
+      <c r="S80" s="14" t="str" cm="1">
         <f t="array" ref="S80">IF(S40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S40,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T80" s="91" t="str" cm="1">
+      <c r="T80" s="14" t="str" cm="1">
         <f t="array" ref="T80">IF(T40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T40,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U80" s="91" t="str" cm="1">
+      <c r="U80" s="14" t="str" cm="1">
         <f t="array" ref="U80">IF(U40&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U40,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V80" s="91" t="str">
+      <c r="V80" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_HREG,lo:4,hi:8</v>
       </c>
     </row>
     <row r="81" spans="5:22">
-      <c r="E81" s="91" t="str" cm="1">
+      <c r="E81" s="14" t="str" cm="1">
         <f t="array" ref="E81">IF(E41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E41,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F81" s="91" t="str" cm="1">
+      <c r="F81" s="14" t="str" cm="1">
         <f t="array" ref="F81">IF(F41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F41,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G81" s="91" t="str" cm="1">
+      <c r="G81" s="14" t="str" cm="1">
         <f t="array" ref="G81">IF(G41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G41,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H81" s="91" t="str" cm="1">
+      <c r="H81" s="14" t="str" cm="1">
         <f t="array" ref="H81">IF(H41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H41,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I81" s="91" t="str" cm="1">
+      <c r="I81" s="14" t="str" cm="1">
         <f t="array" ref="I81">IF(I41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I41,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J81" s="91" t="str" cm="1">
+      <c r="J81" s="14" t="str" cm="1">
         <f t="array" ref="J81">IF(J41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J41,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K81" s="91" t="str" cm="1">
+      <c r="K81" s="14" t="str" cm="1">
         <f t="array" ref="K81">IF(K41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K41,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L81" s="91" t="str" cm="1">
+      <c r="L81" s="14" t="str" cm="1">
         <f t="array" ref="L81">IF(L41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L41,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M81" s="91" t="str" cm="1">
+      <c r="M81" s="14" t="str" cm="1">
         <f t="array" ref="M81">IF(M41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M41,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N81" s="91" t="str" cm="1">
+      <c r="N81" s="14" t="str" cm="1">
         <f t="array" ref="N81">IF(N41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N41,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O81" s="91" t="str" cm="1">
+      <c r="O81" s="14" t="str" cm="1">
         <f t="array" ref="O81">IF(O41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O41,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P81" s="91" t="str" cm="1">
+      <c r="P81" s="14" t="str" cm="1">
         <f t="array" ref="P81">IF(P41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P41,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q81" s="91" t="str" cm="1">
+      <c r="Q81" s="14" t="str" cm="1">
         <f t="array" ref="Q81">IF(Q41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q41,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R81" s="91" t="str" cm="1">
+      <c r="R81" s="14" t="str" cm="1">
         <f t="array" ref="R81">IF(R41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R41,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S81" s="91" t="str" cm="1">
+      <c r="S81" s="14" t="str" cm="1">
         <f t="array" ref="S81">IF(S41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S41,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T81" s="91" t="str" cm="1">
+      <c r="T81" s="14" t="str" cm="1">
         <f t="array" ref="T81">IF(T41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T41,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_ATK_LL,lo:0.01,hi:0.02</v>
       </c>
-      <c r="U81" s="91" t="str" cm="1">
+      <c r="U81" s="14" t="str" cm="1">
         <f t="array" ref="U81">IF(U41&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U41,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="V81" s="91" t="str">
+      <c r="V81" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_ATK_LL,lo:0.01,hi:0.02</v>
       </c>
     </row>
     <row r="82" spans="5:22">
-      <c r="E82" s="91" t="str" cm="1">
+      <c r="E82" s="14" t="str" cm="1">
         <f t="array" ref="E82">IF(E42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(E42,"-"), "id:"&amp;E$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="F82" s="91" t="str" cm="1">
+      <c r="F82" s="14" t="str" cm="1">
         <f t="array" ref="F82">IF(F42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(F42,"-"), "id:"&amp;F$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="G82" s="91" t="str" cm="1">
+      <c r="G82" s="14" t="str" cm="1">
         <f t="array" ref="G82">IF(G42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(G42,"-"), "id:"&amp;G$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="H82" s="91" t="str" cm="1">
+      <c r="H82" s="14" t="str" cm="1">
         <f t="array" ref="H82">IF(H42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(H42,"-"), "id:"&amp;H$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="I82" s="91" t="str" cm="1">
+      <c r="I82" s="14" t="str" cm="1">
         <f t="array" ref="I82">IF(I42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(I42,"-"), "id:"&amp;I$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="J82" s="91" t="str" cm="1">
+      <c r="J82" s="14" t="str" cm="1">
         <f t="array" ref="J82">IF(J42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(J42,"-"), "id:"&amp;J$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="K82" s="91" t="str" cm="1">
+      <c r="K82" s="14" t="str" cm="1">
         <f t="array" ref="K82">IF(K42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(K42,"-"), "id:"&amp;K$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="L82" s="91" t="str" cm="1">
+      <c r="L82" s="14" t="str" cm="1">
         <f t="array" ref="L82">IF(L42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(L42,"-"), "id:"&amp;L$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="M82" s="91" t="str" cm="1">
+      <c r="M82" s="14" t="str" cm="1">
         <f t="array" ref="M82">IF(M42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(M42,"-"), "id:"&amp;M$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="N82" s="91" t="str" cm="1">
+      <c r="N82" s="14" t="str" cm="1">
         <f t="array" ref="N82">IF(N42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(N42,"-"), "id:"&amp;N$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="O82" s="91" t="str" cm="1">
+      <c r="O82" s="14" t="str" cm="1">
         <f t="array" ref="O82">IF(O42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(O42,"-"), "id:"&amp;O$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="P82" s="91" t="str" cm="1">
+      <c r="P82" s="14" t="str" cm="1">
         <f t="array" ref="P82">IF(P42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(P42,"-"), "id:"&amp;P$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="Q82" s="91" t="str" cm="1">
+      <c r="Q82" s="14" t="str" cm="1">
         <f t="array" ref="Q82">IF(Q42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(Q42,"-"), "id:"&amp;Q$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="R82" s="91" t="str" cm="1">
+      <c r="R82" s="14" t="str" cm="1">
         <f t="array" ref="R82">IF(R42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(R42,"-"), "id:"&amp;R$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="S82" s="91" t="str" cm="1">
+      <c r="S82" s="14" t="str" cm="1">
         <f t="array" ref="S82">IF(S42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(S42,"-"), "id:"&amp;S$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="T82" s="91" t="str" cm="1">
+      <c r="T82" s="14" t="str" cm="1">
         <f t="array" ref="T82">IF(T42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(T42,"-"), "id:"&amp;T$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v/>
       </c>
-      <c r="U82" s="91" t="str" cm="1">
+      <c r="U82" s="14" t="str" cm="1">
         <f t="array" ref="U82">IF(U42&lt;&gt;"",_xlfn.LET(_xlpm.expl,_xlfn.TEXTSPLIT(U42,"-"), "id:"&amp;U$2&amp;",lo:"&amp;INDEX(_xlpm.expl,1)&amp;",hi:"&amp;INDEX(_xlpm.expl,2)),"")</f>
         <v>id:IATTR_ATK_ML,lo:0.01,hi:0.02</v>
       </c>
-      <c r="V82" s="91" t="str">
+      <c r="V82" s="14" t="str">
         <f t="shared" si="0"/>
         <v>id:IATTR_ATK_ML,lo:0.01,hi:0.02</v>
       </c>
     </row>
     <row r="83" spans="5:22">
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="91"/>
-      <c r="R83" s="91"/>
-      <c r="S83" s="91"/>
-      <c r="T83" s="91"/>
-      <c r="U83" s="91"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
     </row>
     <row r="84" spans="5:22">
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="91"/>
-      <c r="U84" s="91"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
     </row>
     <row r="85" spans="5:22">
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="91"/>
-      <c r="U85" s="91"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
     </row>
     <row r="86" spans="5:22">
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="91"/>
-      <c r="O86" s="91"/>
-      <c r="P86" s="91"/>
-      <c r="Q86" s="91"/>
-      <c r="R86" s="91"/>
-      <c r="S86" s="91"/>
-      <c r="T86" s="91"/>
-      <c r="U86" s="91"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
     </row>
     <row r="87" spans="5:22">
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="91"/>
-      <c r="P87" s="91"/>
-      <c r="Q87" s="91"/>
-      <c r="R87" s="91"/>
-      <c r="S87" s="91"/>
-      <c r="T87" s="91"/>
-      <c r="U87" s="91"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
@@ -8041,7 +8038,7 @@
       <selection pane="bottomLeft" activeCell="F37" sqref="F20:L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -10832,7 +10829,7 @@
       <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="44" bestFit="1" customWidth="1"/>
@@ -12064,7 +12061,7 @@
       <selection pane="bottomLeft" activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -16405,7 +16402,7 @@
       <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="14" bestFit="1" customWidth="1"/>
@@ -18915,7 +18912,7 @@
         <v>Arthas Corruption set</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="25.5">
+    <row r="129" spans="1:8">
       <c r="A129" s="26">
         <v>-11</v>
       </c>
@@ -19057,7 +19054,7 @@
         <v>Arthas Corruption set</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="25.5">
+    <row r="136" spans="1:8" ht="28.5">
       <c r="A136" s="26">
         <v>-11</v>
       </c>
@@ -19123,7 +19120,7 @@
         <v>+5-30 Attack power</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="25.5">
+    <row r="140" spans="1:8" ht="28.5">
       <c r="A140" s="26">
         <v>52</v>
       </c>
@@ -19149,7 +19146,7 @@
         <v>On Attack: 20% chance to deal 26-144 bleed damage</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="25.5">
+    <row r="141" spans="1:8" ht="28.5">
       <c r="A141" s="26">
         <v>55</v>
       </c>
@@ -19293,7 +19290,7 @@
         <v>+5-30 Strength</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="25.5">
+    <row r="148" spans="1:8">
       <c r="A148" s="26">
         <v>71</v>
       </c>
@@ -19348,7 +19345,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="25.5">
+    <row r="150" spans="1:8" ht="28.5">
       <c r="A150" s="26">
         <v>58</v>
       </c>
@@ -19432,7 +19429,7 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="26" bestFit="1" customWidth="1"/>
@@ -19457,7 +19454,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="25.5">
+    <row r="2" spans="1:8" s="14" customFormat="1">
       <c r="A2" s="21" t="s">
         <v>635</v>
       </c>
@@ -19490,7 +19487,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5">
+    <row r="4" spans="1:8" ht="28.5">
       <c r="A4" s="26">
         <v>51</v>
       </c>
@@ -19549,7 +19546,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.5">
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="26">
         <v>85</v>
       </c>
@@ -19588,7 +19585,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="25.5">
+    <row r="39" spans="1:8" ht="28.5">
       <c r="A39" s="26">
         <v>73</v>
       </c>
@@ -19647,7 +19644,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.5">
+    <row r="41" spans="1:8" ht="28.5">
       <c r="A41" s="26">
         <v>2</v>
       </c>
@@ -19688,11 +19685,11 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H53"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5" style="14" customWidth="1"/>
     <col min="2" max="2" width="2" style="14" customWidth="1"/>
@@ -21000,7 +20997,7 @@
       <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="14" bestFit="1" customWidth="1"/>
@@ -21014,17 +21011,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="16"/>
